--- a/VbsWriter/file/test_template.xlsx
+++ b/VbsWriter/file/test_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\93.TaskSchedule\01.施設予約計画停止\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harp179\Documents\VbsWriter\VbsWriter\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="246">
   <si>
     <t>■作業表</t>
   </si>
@@ -1832,11 +1832,6 @@
     <t>20:10</t>
   </si>
   <si>
-    <t>スナップショット取得
-・施設予約評価サーバ( clsycmnsv11 )
-※評価ＰＤＦサーバ２号機( cldspdfap12 )は基盤チームが取得するため不要</t>
-  </si>
-  <si>
     <t>１. 統合管理ターミナルサーバー(10.254.255.21) にリモートデスクトップでログインする。" &amp; vbCrLf &amp; "２. ブラウザで https://10.255.255.27/vsphere-client/ にアクセスし、ID : harpuser でログインする。" &amp; vbCrLf &amp; "３. ホームより「vCenter Inventory Lists」を選択" &amp; vbCrLf &amp; "４. 左側のツリーより「Virtual Machines」を選択" &amp; vbCrLf &amp; "５. 対象のホストを選択し右クリックから「Snapshots」→「Take snapshots..」を選択" &amp; vbCrLf &amp; "６. 名前「 20181127_施設予約計画停止 」をつけてOKをクリック" &amp; vbCrLf &amp; "</t>
   </si>
   <si>
@@ -1894,11 +1889,6 @@
     <t>21:11</t>
   </si>
   <si>
-    <t>スナップショット取得
-・施設予約札幌ＤＢサーバ( clsysapdb01 )
-・施設予約札幌ＡＰサーバ( clsysapap01 )</t>
-  </si>
-  <si>
     <t>=C16</t>
   </si>
   <si>
@@ -1965,10 +1955,6 @@
     <t>１．本番URL（https://yoyaku.harp.lg.jp/）にアクセスし、看板（時間外）が表示されることを確認する。" &amp; vbCrLf &amp; "</t>
   </si>
   <si>
-    <t>音声サービス終了時間を23:00へ変更
-（再起動は23:00以降に実施）</t>
-  </si>
-  <si>
     <t>１．音声サーバー(clsysapvs01) にリモートデスクトップでログインする。（必ず administrator でログインすること）" &amp; vbCrLf &amp; "２．「C:\HARP.JV.SSY.Onsei.Main\exe\SSYONSEI.exe_通常Configにする.bat」を実行し、「SSYONSEI.exe.config」が変更されていることを確認する。" &amp; vbCrLf &amp; "３．「C:\HARP.JV.SSY.Onsei.Main\wav\_____通常音声にする.bat」を実行し、「1003.wav」「1004.wav」が変更されていることを確認する。" &amp; vbCrLf &amp; "４．設定反映のため、 音声サーバー(clsysapvs01) の再起動を行う。（スタートメニューから）" &amp; vbCrLf &amp; "５．再起動後、administrator でログインし、VOISTAGE のサービスが起動されていることを確認する。" &amp; vbCrLf &amp; "６．電話（011-522-2500）にて、通常の時間外メッセージであることを確認する。" &amp; vbCrLf &amp; "" &amp; vbCrLf &amp; "</t>
   </si>
   <si>
@@ -2017,12 +2003,6 @@
     <t>22:35</t>
   </si>
   <si>
-    <t>スナップショット取得
-・施設予約広域ＤＢサーバ( clsymuldb01 )
-・施設予約広域ＡＰサーバ( clsymulap01 )
-※本番ＰＤＦサーバ２号機( cldspdfap12 )は基盤チームが取得するため不要</t>
-  </si>
-  <si>
     <t>=C28</t>
   </si>
   <si>
@@ -2056,10 +2036,6 @@
     <t>=C31</t>
   </si>
   <si>
-    <t>【ひろしま】
-モジュール適用</t>
-  </si>
-  <si>
     <t>全員</t>
   </si>
   <si>
@@ -2072,10 +2048,6 @@
     <t>23:55</t>
   </si>
   <si>
-    <t>【ひろしま】
-ＤＢ作業</t>
-  </si>
-  <si>
     <t>１．SQL Server Management Studio からHARP_HIROSHIMAのDBに対し以下のクエリを実行する。" &amp; vbCrLf &amp; "　１－１．#25303_CodeMstに利用者への表示範囲区分（設備パターン）を追加.sql" &amp; vbCrLf &amp; "　１－２．#25303_設備パターンマスタにRyuDispHanniKbnカラムを追加.sql" &amp; vbCrLf &amp; "</t>
   </si>
   <si>
@@ -2085,10 +2057,6 @@
     <t>00:05</t>
   </si>
   <si>
-    <t>【ひろしま】
-ＤＢバックアップ手動取得</t>
-  </si>
-  <si>
     <t>１．SQL Server Management Studio からHARPSSYDB_HIROSHIMAのバックアップを以下のディレクトリに取得する。" &amp; vbCrLf &amp; "　\\10.30.100.11\r$\計画停止\20181127" &amp; vbCrLf &amp; "</t>
   </si>
   <si>
@@ -2098,10 +2066,6 @@
     <t>00:15</t>
   </si>
   <si>
-    <t>【ひろしま】
-個人情報無効化、メールアドレス設定</t>
-  </si>
-  <si>
     <t>１．広域DB(clsymuldb01) にリモートデスクトップでログインし、SQL Server Management Studio からHARPSSYDB_HIROSHIMAに対して、個人情報無効化クエリを実行する。" &amp; vbCrLf &amp; "２．同じく、HARPSSYDB_HIROSHIMAに対して、メールアドレス変更クエリを実行する。" &amp; vbCrLf &amp; "３．UserMstを開き、個人情報が無効化されていること、メールアドレスが「masashi.sasaki@e-harp.jp」に設定されていることを確認する。" &amp; vbCrLf &amp; "</t>
   </si>
   <si>
@@ -2120,10 +2084,6 @@
     <t>00:55</t>
   </si>
   <si>
-    <t>【ひろしま】
-ＤＢリストア　※手動取得バックアップに戻す</t>
-  </si>
-  <si>
     <t>１．HARPSSYDB_HIROSHIMAに対し、夜間バッチ後に手動取得したバックアップからリストアを行う。" &amp; vbCrLf &amp; "２．リストア後、UserMstを開き、無効化していた個人情報が元に戻っていることを確認する。" &amp; vbCrLf &amp; "３．本番裏線から、DB更新がかからない程度の動作確認を行う。" &amp; vbCrLf &amp; "　・利用者側にアクセスし、空き施設検索からカレンダー画面を表示する" &amp; vbCrLf &amp; "　・管理者側でログインし、日別台帳（予約）を開く" &amp; vbCrLf &amp; "</t>
   </si>
   <si>
@@ -2145,95 +2105,43 @@
     <t>01:15</t>
   </si>
   <si>
-    <t xml:space="preserve">
-スナップショット削除
-・評価ＰＤＦ２号機( cldspdfap12 ) 
-    ※ファイル名「20181127_CPU拡張前」
-・施設予約評価( clsycmnsv11 )
-・施設予約札幌ＡＰ( clsysapap01 )
-・施設予約札幌ＤＢ( clsysapdb01 )
-・本番ＰＤＦ２号機( cldspdfap02 ) 
-    ※ファイル名「20181127_CPU拡張前」
-・施設予約広域ＡＰ( clsymulap01 )
-・施設予約広域ＤＢ( clsymuldb01 )
-</t>
-  </si>
-  <si>
     <t>１. 統合管理ターミナルサーバー(10.254.255.21) にリモートデスクトップでログインする。" &amp; vbCrLf &amp; "２. ブラウザで https://10.255.255.27/vsphere-client/ にアクセスし、ID : harpuser でログインする。" &amp; vbCrLf &amp; "３. ホームより「vCenter Inventory Lists」を選択" &amp; vbCrLf &amp; "４. 左側のツリーより「Virtual Machines」を選択" &amp; vbCrLf &amp; "５. 対象のホストを選択し右クリックから「Snapshots」→「Manage snapshots..」を選択" &amp; vbCrLf &amp; "６. 削除対象のスナップショットを選択して「Delete」をクリック</t>
   </si>
   <si>
+    <t>スナップショット取得" &amp; vbCrLf &amp; "・施設予約評価サーバ( clsycmnsv11 )" &amp; vbCrLf &amp; "" &amp; vbCrLf &amp; "※評価ＰＤＦサーバ２号機( cldspdfap12 )は基盤チームが取得するため不要</t>
+  </si>
+  <si>
+    <t>スナップショット取得" &amp; vbCrLf &amp; "・施設予約札幌ＤＢサーバ( clsysapdb01 )" &amp; vbCrLf &amp; "・施設予約札幌ＡＰサーバ( clsysapap01 )</t>
+  </si>
+  <si>
+    <t>音声サービス終了時間を23:00へ変更" &amp; vbCrLf &amp; "（再起動は23:00以降に実施）</t>
+  </si>
+  <si>
+    <t>スナップショット取得" &amp; vbCrLf &amp; "・施設予約広域ＤＢサーバ( clsymuldb01 )" &amp; vbCrLf &amp; "・施設予約広域ＡＰサーバ( clsymulap01 )" &amp; vbCrLf &amp; "" &amp; vbCrLf &amp; "※本番ＰＤＦサーバ２号機( cldspdfap12 )は基盤チームが取得するため不要</t>
+  </si>
+  <si>
+    <t>【ひろしま】" &amp; vbCrLf &amp; "モジュール適用</t>
+  </si>
+  <si>
+    <t>【ひろしま】" &amp; vbCrLf &amp; "ＤＢ作業</t>
+  </si>
+  <si>
+    <t>【ひろしま】" &amp; vbCrLf &amp; "ＤＢバックアップ手動取得</t>
+  </si>
+  <si>
+    <t>【ひろしま】" &amp; vbCrLf &amp; "個人情報無効化、メールアドレス設定</t>
+  </si>
+  <si>
+    <t>【ひろしま】" &amp; vbCrLf &amp; "ＤＢリストア　※手動取得バックアップに戻す</t>
+  </si>
+  <si>
+    <t>" &amp; vbCrLf &amp; "スナップショット削除" &amp; vbCrLf &amp; "・評価ＰＤＦ２号機( cldspdfap12 ) " &amp; vbCrLf &amp; "    ※ファイル名「20181127_CPU拡張前」" &amp; vbCrLf &amp; "・施設予約評価( clsycmnsv11 )" &amp; vbCrLf &amp; "・施設予約札幌ＡＰ( clsysapap01 )" &amp; vbCrLf &amp; "・施設予約札幌ＤＢ( clsysapdb01 )" &amp; vbCrLf &amp; "・本番ＰＤＦ２号機( cldspdfap02 ) " &amp; vbCrLf &amp; "    ※ファイル名「20181127_CPU拡張前」" &amp; vbCrLf &amp; "・施設予約広域ＡＰ( clsymulap01 )" &amp; vbCrLf &amp; "・施設予約広域ＤＢ( clsymuldb01 )" &amp; vbCrLf &amp; "</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>startRow</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>startTime</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>endTime</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>totalTime</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>targetEnvironment</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>targetArea</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>workTitle</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>responsible</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>workPlace</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>procedure</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>sap</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>eni</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>hako</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>asa</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>hiro</t>
-    <phoneticPr fontId="41"/>
-  </si>
-  <si>
-    <t>aki</t>
-    <phoneticPr fontId="41"/>
   </si>
 </sst>
 </file>
@@ -2246,7 +2154,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="mmm\ d"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2536,13 +2444,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -5075,7 +4976,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5712,23 +5613,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6397,97 +6304,97 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="219"/>
-      <c r="C2" s="220">
+      <c r="B2" s="221"/>
+      <c r="C2" s="222">
         <f>[2]ｼｽﾃﾑ計画停止作業計画!$C$22</f>
         <v>43431</v>
       </c>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="224"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="223" t="s">
+      <c r="N2" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="223"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="223"/>
-      <c r="S2" s="223"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="225"/>
     </row>
     <row r="3" spans="1:21" s="8" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="227" t="s">
+      <c r="C3" s="228"/>
+      <c r="D3" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="226" t="s">
+      <c r="E3" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="226"/>
-      <c r="G3" s="227" t="s">
+      <c r="F3" s="228"/>
+      <c r="G3" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="229" t="s">
+      <c r="H3" s="231" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="230"/>
-      <c r="J3" s="233" t="s">
+      <c r="I3" s="232"/>
+      <c r="J3" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="233" t="s">
+      <c r="K3" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="235" t="s">
+      <c r="L3" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="235" t="s">
+      <c r="M3" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="238" t="s">
+      <c r="N3" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="239"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="239"/>
-      <c r="S3" s="240"/>
+      <c r="O3" s="241"/>
+      <c r="P3" s="241"/>
+      <c r="Q3" s="241"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="242"/>
     </row>
     <row r="4" spans="1:21" s="8" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="225"/>
+      <c r="A4" s="227"/>
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="228"/>
+      <c r="D4" s="230"/>
       <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="228"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="236"/>
-      <c r="M4" s="237"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="234"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="238"/>
+      <c r="M4" s="239"/>
       <c r="N4" s="11" t="s">
         <v>17</v>
       </c>
@@ -6510,10 +6417,10 @@
     </row>
     <row r="5" spans="1:21" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="243" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="242"/>
+      <c r="C5" s="244"/>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
@@ -6571,10 +6478,10 @@
     </row>
     <row r="6" spans="1:21" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="245" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="244"/>
+      <c r="C6" s="246"/>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
@@ -6623,10 +6530,10 @@
     </row>
     <row r="7" spans="1:21" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="245" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="244"/>
+      <c r="C7" s="246"/>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
       <c r="F7" s="32"/>
@@ -6676,10 +6583,10 @@
     </row>
     <row r="8" spans="1:21" ht="146.25" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
-      <c r="B8" s="243" t="s">
+      <c r="B8" s="245" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="244"/>
+      <c r="C8" s="246"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
       <c r="F8" s="32"/>
@@ -6724,10 +6631,10 @@
     </row>
     <row r="9" spans="1:21" ht="157.5" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
-      <c r="B9" s="254" t="s">
+      <c r="B9" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="255"/>
+      <c r="C9" s="257"/>
       <c r="D9" s="43"/>
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
@@ -6819,10 +6726,10 @@
         <v>48</v>
       </c>
       <c r="G10" s="60"/>
-      <c r="H10" s="256" t="s">
+      <c r="H10" s="258" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="259" t="s">
+      <c r="I10" s="261" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="61" t="s">
@@ -6879,8 +6786,8 @@
         <v>54</v>
       </c>
       <c r="G11" s="73"/>
-      <c r="H11" s="257"/>
-      <c r="I11" s="260"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="262"/>
       <c r="J11" s="74" t="s">
         <v>55</v>
       </c>
@@ -6934,8 +6841,8 @@
         <v>54</v>
       </c>
       <c r="G12" s="85"/>
-      <c r="H12" s="257"/>
-      <c r="I12" s="260"/>
+      <c r="H12" s="259"/>
+      <c r="I12" s="262"/>
       <c r="J12" s="86" t="s">
         <v>59</v>
       </c>
@@ -7001,8 +6908,8 @@
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="73"/>
-      <c r="H13" s="258"/>
-      <c r="I13" s="261"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="263"/>
       <c r="J13" s="74" t="s">
         <v>61</v>
       </c>
@@ -7056,10 +6963,10 @@
       <c r="E14" s="96"/>
       <c r="F14" s="97"/>
       <c r="G14" s="98"/>
-      <c r="H14" s="245" t="s">
+      <c r="H14" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="247" t="s">
+      <c r="I14" s="249" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="99" t="s">
@@ -7111,8 +7018,8 @@
       <c r="E15" s="71"/>
       <c r="F15" s="72"/>
       <c r="G15" s="98"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="248"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="250"/>
       <c r="J15" s="99" t="s">
         <v>67</v>
       </c>
@@ -7162,8 +7069,8 @@
       <c r="E16" s="71"/>
       <c r="F16" s="72"/>
       <c r="G16" s="98"/>
-      <c r="H16" s="245"/>
-      <c r="I16" s="248"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="250"/>
       <c r="J16" s="99" t="s">
         <v>69</v>
       </c>
@@ -7214,8 +7121,8 @@
       <c r="E17" s="71"/>
       <c r="F17" s="72"/>
       <c r="G17" s="98"/>
-      <c r="H17" s="245"/>
-      <c r="I17" s="248"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="250"/>
       <c r="J17" s="108" t="s">
         <v>71</v>
       </c>
@@ -7279,8 +7186,8 @@
       <c r="E18" s="71"/>
       <c r="F18" s="72"/>
       <c r="G18" s="112"/>
-      <c r="H18" s="245"/>
-      <c r="I18" s="248"/>
+      <c r="H18" s="247"/>
+      <c r="I18" s="250"/>
       <c r="J18" s="108" t="s">
         <v>72</v>
       </c>
@@ -7331,8 +7238,8 @@
       <c r="E19" s="71"/>
       <c r="F19" s="72"/>
       <c r="G19" s="116"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="248"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="250"/>
       <c r="J19" s="108" t="s">
         <v>74</v>
       </c>
@@ -7383,8 +7290,8 @@
       <c r="E20" s="71"/>
       <c r="F20" s="72"/>
       <c r="G20" s="112"/>
-      <c r="H20" s="245"/>
-      <c r="I20" s="248"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="250"/>
       <c r="J20" s="121" t="s">
         <v>76</v>
       </c>
@@ -7435,8 +7342,8 @@
       <c r="E21" s="71"/>
       <c r="F21" s="72"/>
       <c r="G21" s="125"/>
-      <c r="H21" s="245"/>
-      <c r="I21" s="248"/>
+      <c r="H21" s="247"/>
+      <c r="I21" s="250"/>
       <c r="J21" s="108" t="s">
         <v>80</v>
       </c>
@@ -7487,8 +7394,8 @@
       <c r="E22" s="71"/>
       <c r="F22" s="72"/>
       <c r="G22" s="125"/>
-      <c r="H22" s="245"/>
-      <c r="I22" s="248"/>
+      <c r="H22" s="247"/>
+      <c r="I22" s="250"/>
       <c r="J22" s="132" t="s">
         <v>83</v>
       </c>
@@ -7538,8 +7445,8 @@
       <c r="E23" s="96"/>
       <c r="F23" s="97"/>
       <c r="G23" s="135"/>
-      <c r="H23" s="245"/>
-      <c r="I23" s="248"/>
+      <c r="H23" s="247"/>
+      <c r="I23" s="250"/>
       <c r="J23" s="136" t="s">
         <v>86</v>
       </c>
@@ -7589,8 +7496,8 @@
       <c r="E24" s="142"/>
       <c r="F24" s="143"/>
       <c r="G24" s="144"/>
-      <c r="H24" s="245"/>
-      <c r="I24" s="249"/>
+      <c r="H24" s="247"/>
+      <c r="I24" s="251"/>
       <c r="J24" s="132" t="s">
         <v>88</v>
       </c>
@@ -7640,8 +7547,8 @@
       <c r="E25" s="153"/>
       <c r="F25" s="154"/>
       <c r="G25" s="155"/>
-      <c r="H25" s="245"/>
-      <c r="I25" s="250" t="s">
+      <c r="H25" s="247"/>
+      <c r="I25" s="252" t="s">
         <v>33</v>
       </c>
       <c r="J25" s="156" t="s">
@@ -7694,8 +7601,8 @@
       <c r="E26" s="71"/>
       <c r="F26" s="72"/>
       <c r="G26" s="112"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="251"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="253"/>
       <c r="J26" s="108" t="s">
         <v>92</v>
       </c>
@@ -7746,8 +7653,8 @@
       <c r="E27" s="71"/>
       <c r="F27" s="72"/>
       <c r="G27" s="112"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="251"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="253"/>
       <c r="J27" s="108" t="s">
         <v>94</v>
       </c>
@@ -7798,8 +7705,8 @@
       <c r="E28" s="166"/>
       <c r="F28" s="72"/>
       <c r="G28" s="98"/>
-      <c r="H28" s="245"/>
-      <c r="I28" s="251"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="253"/>
       <c r="J28" s="108" t="s">
         <v>96</v>
       </c>
@@ -7863,8 +7770,8 @@
       <c r="E29" s="71"/>
       <c r="F29" s="72"/>
       <c r="G29" s="112"/>
-      <c r="H29" s="245"/>
-      <c r="I29" s="251"/>
+      <c r="H29" s="247"/>
+      <c r="I29" s="253"/>
       <c r="J29" s="108" t="s">
         <v>97</v>
       </c>
@@ -7915,8 +7822,8 @@
       <c r="E30" s="166"/>
       <c r="F30" s="170"/>
       <c r="G30" s="171"/>
-      <c r="H30" s="245"/>
-      <c r="I30" s="251"/>
+      <c r="H30" s="247"/>
+      <c r="I30" s="253"/>
       <c r="J30" s="172" t="s">
         <v>74</v>
       </c>
@@ -7967,8 +7874,8 @@
       <c r="E31" s="71"/>
       <c r="F31" s="72"/>
       <c r="G31" s="116"/>
-      <c r="H31" s="245"/>
-      <c r="I31" s="251"/>
+      <c r="H31" s="247"/>
+      <c r="I31" s="253"/>
       <c r="J31" s="108" t="s">
         <v>76</v>
       </c>
@@ -8019,8 +7926,8 @@
       <c r="E32" s="166"/>
       <c r="F32" s="170"/>
       <c r="G32" s="177"/>
-      <c r="H32" s="245"/>
-      <c r="I32" s="251"/>
+      <c r="H32" s="247"/>
+      <c r="I32" s="253"/>
       <c r="J32" s="178" t="s">
         <v>103</v>
       </c>
@@ -8071,8 +7978,8 @@
       <c r="E33" s="166"/>
       <c r="F33" s="170"/>
       <c r="G33" s="177"/>
-      <c r="H33" s="245"/>
-      <c r="I33" s="251"/>
+      <c r="H33" s="247"/>
+      <c r="I33" s="253"/>
       <c r="J33" s="178" t="s">
         <v>108</v>
       </c>
@@ -8123,8 +8030,8 @@
       <c r="E34" s="166"/>
       <c r="F34" s="170"/>
       <c r="G34" s="177"/>
-      <c r="H34" s="245"/>
-      <c r="I34" s="251"/>
+      <c r="H34" s="247"/>
+      <c r="I34" s="253"/>
       <c r="J34" s="178" t="s">
         <v>110</v>
       </c>
@@ -8175,8 +8082,8 @@
       <c r="E35" s="166"/>
       <c r="F35" s="170"/>
       <c r="G35" s="177"/>
-      <c r="H35" s="245"/>
-      <c r="I35" s="251"/>
+      <c r="H35" s="247"/>
+      <c r="I35" s="253"/>
       <c r="J35" s="178" t="s">
         <v>112</v>
       </c>
@@ -8227,8 +8134,8 @@
       <c r="E36" s="166"/>
       <c r="F36" s="170"/>
       <c r="G36" s="177"/>
-      <c r="H36" s="245"/>
-      <c r="I36" s="251"/>
+      <c r="H36" s="247"/>
+      <c r="I36" s="253"/>
       <c r="J36" s="178" t="s">
         <v>114</v>
       </c>
@@ -8279,8 +8186,8 @@
       <c r="E37" s="181"/>
       <c r="F37" s="182"/>
       <c r="G37" s="177"/>
-      <c r="H37" s="245"/>
-      <c r="I37" s="251"/>
+      <c r="H37" s="247"/>
+      <c r="I37" s="253"/>
       <c r="J37" s="178" t="s">
         <v>116</v>
       </c>
@@ -8331,8 +8238,8 @@
       <c r="E38" s="187"/>
       <c r="F38" s="188"/>
       <c r="G38" s="189"/>
-      <c r="H38" s="245"/>
-      <c r="I38" s="252" t="s">
+      <c r="H38" s="247"/>
+      <c r="I38" s="254" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="190" t="s">
@@ -8385,8 +8292,8 @@
       <c r="E39" s="200"/>
       <c r="F39" s="201"/>
       <c r="G39" s="202"/>
-      <c r="H39" s="246"/>
-      <c r="I39" s="253"/>
+      <c r="H39" s="248"/>
+      <c r="I39" s="255"/>
       <c r="J39" s="203" t="s">
         <v>120</v>
       </c>
@@ -8472,3833 +8379,3852 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="120.625" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="90.875" style="216" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="216" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="216" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="216" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="216" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.875" style="216" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="120.625" style="216" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="216" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.75" style="216" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="90.875" style="215" customWidth="1"/>
     <col min="12" max="16" width="6.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="217" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="217" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="214" t="s">
+      <c r="C1" s="217" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="214" t="s">
+      <c r="D1" s="217" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="214" t="s">
+      <c r="E1" s="217" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="214" t="s">
+      <c r="F1" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="214" t="s">
+      <c r="G1" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="214" t="s">
+      <c r="H1" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="214" t="s">
+      <c r="I1" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="214" t="s">
+      <c r="J1" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="215" t="s">
+      <c r="K1" s="218" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="214" t="s">
+      <c r="L1" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="214" t="s">
+      <c r="M1" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="214" t="s">
+      <c r="N1" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="214" t="s">
+      <c r="O1" s="213" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="214" t="s">
+      <c r="P1" s="213" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="214" t="s">
+      <c r="Q1" s="213" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="216">
         <f>ROW(作業計画!A10)</f>
         <v>10</v>
       </c>
-      <c r="B2" s="212">
+      <c r="B2" s="219">
         <f>作業計画!A10</f>
         <v>2</v>
       </c>
-      <c r="C2" s="212" t="str">
+      <c r="C2" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B10), _xlfn.FORMULATEXT(作業計画!B10), TEXT(作業計画!B10,"HH:MM"))</f>
         <v>20:00</v>
       </c>
-      <c r="D2" s="212" t="str">
+      <c r="D2" s="219" t="str">
         <f ca="1">TEXT(作業計画!C10,"HH:MM")</f>
         <v>20:05</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="216">
         <f>作業計画!D10</f>
         <v>5</v>
       </c>
-      <c r="F2" s="213" t="str">
-        <f>作業計画!H10</f>
+      <c r="F2" s="216" t="str">
+        <f>IF(作業計画!H10=0, F1, 作業計画!H10)</f>
         <v>評価</v>
       </c>
-      <c r="G2" s="213" t="str">
-        <f>作業計画!I10</f>
+      <c r="G2" s="216" t="str">
+        <f>IF(作業計画!I10=0, G1, 作業計画!I10)</f>
         <v>全体</v>
       </c>
-      <c r="H2" s="213" t="str">
-        <f>作業計画!J10</f>
+      <c r="H2" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J10, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>評価PDFサーバ電源OFF</v>
       </c>
-      <c r="I2" s="213" t="str">
+      <c r="I2" s="216" t="str">
         <f>作業計画!K10</f>
         <v>佐藤</v>
       </c>
-      <c r="J2" s="213" t="str">
+      <c r="J2" s="216" t="str">
         <f>作業計画!L10</f>
         <v>HARP</v>
       </c>
-      <c r="K2" s="217" t="str">
+      <c r="K2" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M10, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．評価ＰＤＦサーバ２号機( cldspdfap12 )にリモートデスクトップでログインする。（必ず administrator でログインすること）" &amp; vbCrLf &amp; "２．左下のWindowsメニューを開いて電源アイコンを選択し「シャットダウン」をクリックする。" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L2" s="213" t="str">
+      <c r="L2" s="212" t="str">
         <f>作業計画!N10</f>
         <v>□</v>
       </c>
-      <c r="M2" s="213" t="str">
+      <c r="M2" s="212" t="str">
         <f>作業計画!O10</f>
         <v>□</v>
       </c>
-      <c r="N2" s="213" t="str">
+      <c r="N2" s="212" t="str">
         <f>作業計画!P10</f>
         <v>□</v>
       </c>
-      <c r="O2" s="213" t="str">
+      <c r="O2" s="212" t="str">
         <f>作業計画!Q10</f>
         <v>□</v>
       </c>
-      <c r="P2" s="213" t="str">
+      <c r="P2" s="212" t="str">
         <f>作業計画!R10</f>
         <v>□</v>
       </c>
-      <c r="Q2" s="213" t="str">
+      <c r="Q2" s="212" t="str">
         <f>作業計画!S10</f>
         <v>□</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="216">
         <f>ROW(作業計画!A11)</f>
         <v>11</v>
       </c>
-      <c r="B3" s="212">
+      <c r="B3" s="219">
         <f>作業計画!A11</f>
         <v>3</v>
       </c>
-      <c r="C3" s="212" t="str">
+      <c r="C3" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B11), _xlfn.FORMULATEXT(作業計画!B11), TEXT(作業計画!B11,"HH:MM"))</f>
         <v>=C10</v>
       </c>
-      <c r="D3" s="212" t="str">
+      <c r="D3" s="219" t="str">
         <f ca="1">TEXT(作業計画!C11,"HH:MM")</f>
         <v>20:15</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="216">
         <f>作業計画!D11</f>
         <v>10</v>
       </c>
-      <c r="F3" s="213">
-        <f>作業計画!H11</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="213">
-        <f>作業計画!I11</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="213" t="str">
-        <f>作業計画!J11</f>
+      <c r="F3" s="216" t="str">
+        <f>IF(作業計画!H11=0, F2, 作業計画!H11)</f>
+        <v>評価</v>
+      </c>
+      <c r="G3" s="216" t="str">
+        <f>IF(作業計画!I11=0, G2, 作業計画!I11)</f>
+        <v>全体</v>
+      </c>
+      <c r="H3" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J11, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>評価PDFサーバCPU追加</v>
       </c>
-      <c r="I3" s="213" t="str">
+      <c r="I3" s="216" t="str">
         <f>作業計画!K11</f>
         <v>基盤チーム</v>
       </c>
-      <c r="J3" s="213" t="str">
+      <c r="J3" s="216" t="str">
         <f>作業計画!L11</f>
         <v>HARP</v>
       </c>
-      <c r="K3" s="217" t="str">
+      <c r="K3" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M11, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>基盤チームの作業手順：スナップショットの取得　→　CPUリソース追加　→　電源ON" &amp; vbCrLf &amp; "※施設予約チームの担当箇所：作業前の電源OFF、作業後の動作確認・スナップショット削除" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L3" s="213" t="str">
+      <c r="L3" s="212" t="str">
         <f>作業計画!N11</f>
         <v>□</v>
       </c>
-      <c r="M3" s="213" t="str">
+      <c r="M3" s="212" t="str">
         <f>作業計画!O11</f>
         <v>□</v>
       </c>
-      <c r="N3" s="213" t="str">
+      <c r="N3" s="212" t="str">
         <f>作業計画!P11</f>
         <v>□</v>
       </c>
-      <c r="O3" s="213" t="str">
+      <c r="O3" s="212" t="str">
         <f>作業計画!Q11</f>
         <v>□</v>
       </c>
-      <c r="P3" s="213" t="str">
+      <c r="P3" s="212" t="str">
         <f>作業計画!R11</f>
         <v>□</v>
       </c>
-      <c r="Q3" s="213" t="str">
+      <c r="Q3" s="212" t="str">
         <f>作業計画!S11</f>
         <v>□</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="216">
         <f>ROW(作業計画!A12)</f>
         <v>12</v>
       </c>
-      <c r="B4" s="212">
+      <c r="B4" s="219">
         <f>作業計画!A12</f>
         <v>4</v>
       </c>
-      <c r="C4" s="212" t="str">
+      <c r="C4" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B12), _xlfn.FORMULATEXT(作業計画!B12), TEXT(作業計画!B12,"HH:MM"))</f>
         <v>20:00</v>
       </c>
-      <c r="D4" s="212" t="str">
+      <c r="D4" s="219" t="str">
         <f ca="1">TEXT(作業計画!C12,"HH:MM")</f>
         <v>20:10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="216">
         <f>作業計画!D12</f>
         <v>10</v>
       </c>
-      <c r="F4" s="213">
-        <f>作業計画!H12</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="213">
-        <f>作業計画!I12</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="213" t="str">
-        <f>作業計画!J12</f>
-        <v>スナップショット取得
-・施設予約評価サーバ( clsycmnsv11 )
-※評価ＰＤＦサーバ２号機( cldspdfap12 )は基盤チームが取得するため不要</v>
-      </c>
-      <c r="I4" s="213" t="str">
+      <c r="F4" s="216" t="str">
+        <f>IF(作業計画!H12=0, F3, 作業計画!H12)</f>
+        <v>評価</v>
+      </c>
+      <c r="G4" s="216" t="str">
+        <f>IF(作業計画!I12=0, G3, 作業計画!I12)</f>
+        <v>全体</v>
+      </c>
+      <c r="H4" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J12, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v>スナップショット取得" &amp; vbCrLf &amp; "・施設予約評価サーバ( clsycmnsv11 )" &amp; vbCrLf &amp; "" &amp; vbCrLf &amp; "※評価ＰＤＦサーバ２号機( cldspdfap12 )は基盤チームが取得するため不要</v>
+      </c>
+      <c r="I4" s="216" t="str">
         <f>作業計画!K12</f>
         <v>佐藤</v>
       </c>
-      <c r="J4" s="213" t="str">
+      <c r="J4" s="216" t="str">
         <f>作業計画!L12</f>
         <v>HARP</v>
       </c>
-      <c r="K4" s="217" t="str">
+      <c r="K4" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M12, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１. 統合管理ターミナルサーバー(10.254.255.21) にリモートデスクトップでログインする。" &amp; vbCrLf &amp; "２. ブラウザで https://10.255.255.27/vsphere-client/ にアクセスし、ID : harpuser でログインする。" &amp; vbCrLf &amp; "３. ホームより「vCenter Inventory Lists」を選択" &amp; vbCrLf &amp; "４. 左側のツリーより「Virtual Machines」を選択" &amp; vbCrLf &amp; "５. 対象のホストを選択し右クリックから「Snapshots」→「Take snapshots..」を選択" &amp; vbCrLf &amp; "６. 名前「 20181127_施設予約計画停止 」をつけてOKをクリック" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L4" s="213" t="str">
+      <c r="L4" s="212" t="str">
         <f>作業計画!N12</f>
         <v>□</v>
       </c>
-      <c r="M4" s="213" t="str">
+      <c r="M4" s="212" t="str">
         <f>作業計画!O12</f>
         <v>□</v>
       </c>
-      <c r="N4" s="213" t="str">
+      <c r="N4" s="212" t="str">
         <f>作業計画!P12</f>
         <v>□</v>
       </c>
-      <c r="O4" s="213" t="str">
+      <c r="O4" s="212" t="str">
         <f>作業計画!Q12</f>
         <v>□</v>
       </c>
-      <c r="P4" s="213" t="str">
+      <c r="P4" s="212" t="str">
         <f>作業計画!R12</f>
         <v>□</v>
       </c>
-      <c r="Q4" s="213" t="str">
+      <c r="Q4" s="212" t="str">
         <f>作業計画!S12</f>
         <v>□</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="216">
         <f>ROW(作業計画!A13)</f>
         <v>13</v>
       </c>
-      <c r="B5" s="212">
+      <c r="B5" s="219">
         <f>作業計画!A13</f>
         <v>5</v>
       </c>
-      <c r="C5" s="212" t="str">
+      <c r="C5" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B13), _xlfn.FORMULATEXT(作業計画!B13), TEXT(作業計画!B13,"HH:MM"))</f>
         <v>=C12</v>
       </c>
-      <c r="D5" s="212" t="str">
+      <c r="D5" s="219" t="str">
         <f ca="1">TEXT(作業計画!C13,"HH:MM")</f>
         <v>20:30</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="216">
         <f>作業計画!D13</f>
         <v>20</v>
       </c>
-      <c r="F5" s="213">
-        <f>作業計画!H13</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="213">
-        <f>作業計画!I13</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="213" t="str">
-        <f>作業計画!J13</f>
+      <c r="F5" s="216" t="str">
+        <f>IF(作業計画!H13=0, F4, 作業計画!H13)</f>
+        <v>評価</v>
+      </c>
+      <c r="G5" s="216" t="str">
+        <f>IF(作業計画!I13=0, G4, 作業計画!I13)</f>
+        <v>全体</v>
+      </c>
+      <c r="H5" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J13, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>Windowsパッチ適用(評価・評価PDF)</v>
       </c>
-      <c r="I5" s="213" t="str">
+      <c r="I5" s="216" t="str">
         <f>作業計画!K13</f>
         <v>佐藤</v>
       </c>
-      <c r="J5" s="213" t="str">
+      <c r="J5" s="216" t="str">
         <f>作業計画!L13</f>
         <v>HARP</v>
       </c>
-      <c r="K5" s="217" t="str">
+      <c r="K5" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M13, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．評価サーバー(clsycmnsv11)に以下のパッチをWindows Updateで適用する。Windows Updateが正常に機能しなかった場合は手動で適用する。パッチ適用後、サーバーを再起動する。" &amp; vbCrLf &amp; " ・windows8.1-kb4467697-x64_f588e695da8b44efda3fb0201aff8f0b0cfcf5bc.msu" &amp; vbCrLf &amp; " ・windows8.1-kb4467703-x64_61a1985243fe783a4095916160736a5cf8811a88.msu" &amp; vbCrLf &amp; " ・windows8.1-kb4466536-x64_4a888ca79a1568bcfeba556e93d8fb9b26842953.msu" &amp; vbCrLf &amp; "" &amp; vbCrLf &amp; "２．評価PDFサーバー(cldspdfap12)に以下のパッチをWindows Updateで適用する。Windows Updateが正常に機能しなかった場合は手動で適用する。パッチ適用後、サーバーを再起動する。" &amp; vbCrLf &amp; " ・（差分）windows10.0-kb4467691-x64delta6b9a46894017c7fc7776f896b0a8123ede03b8f6.msu" &amp; vbCrLf &amp; " ・（累積）windows10.0-kb4467691-x64_c1884b8c61fd7837b4a59a3aa7b87707474a8c12.msu" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L5" s="213" t="str">
+      <c r="L5" s="212" t="str">
         <f>作業計画!N13</f>
         <v>□</v>
       </c>
-      <c r="M5" s="213" t="str">
+      <c r="M5" s="212" t="str">
         <f>作業計画!O13</f>
         <v>□</v>
       </c>
-      <c r="N5" s="213" t="str">
+      <c r="N5" s="212" t="str">
         <f>作業計画!P13</f>
         <v>□</v>
       </c>
-      <c r="O5" s="213" t="str">
+      <c r="O5" s="212" t="str">
         <f>作業計画!Q13</f>
         <v>□</v>
       </c>
-      <c r="P5" s="213" t="str">
+      <c r="P5" s="212" t="str">
         <f>作業計画!R13</f>
         <v>□</v>
       </c>
-      <c r="Q5" s="213" t="str">
+      <c r="Q5" s="212" t="str">
         <f>作業計画!S13</f>
         <v>□</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="216">
         <f>ROW(作業計画!A14)</f>
         <v>14</v>
       </c>
-      <c r="B6" s="212">
+      <c r="B6" s="219">
         <f>作業計画!A14</f>
         <v>6</v>
       </c>
-      <c r="C6" s="212" t="str">
+      <c r="C6" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B14), _xlfn.FORMULATEXT(作業計画!B14), TEXT(作業計画!B14,"HH:MM"))</f>
         <v>20:45</v>
       </c>
-      <c r="D6" s="212" t="str">
+      <c r="D6" s="219" t="str">
         <f>TEXT(作業計画!C14,"HH:MM")</f>
         <v>20:50</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="216">
         <f>作業計画!D14</f>
         <v>5</v>
       </c>
-      <c r="F6" s="213" t="str">
-        <f>作業計画!H14</f>
+      <c r="F6" s="216" t="str">
+        <f>IF(作業計画!H14=0, F5, 作業計画!H14)</f>
         <v>本番</v>
       </c>
-      <c r="G6" s="213" t="str">
-        <f>作業計画!I14</f>
+      <c r="G6" s="216" t="str">
+        <f>IF(作業計画!I14=0, G5, 作業計画!I14)</f>
         <v>札幌</v>
       </c>
-      <c r="H6" s="213" t="str">
-        <f>作業計画!J14</f>
+      <c r="H6" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J14, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>音声サービス終了時間変更（21:00）</v>
       </c>
-      <c r="I6" s="213" t="str">
+      <c r="I6" s="216" t="str">
         <f>作業計画!K14</f>
         <v>佐藤</v>
       </c>
-      <c r="J6" s="213" t="str">
+      <c r="J6" s="216" t="str">
         <f>作業計画!L14</f>
         <v>HARP</v>
       </c>
-      <c r="K6" s="217" t="str">
+      <c r="K6" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M14, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．音声サーバー(clsysapvs01) にリモートデスクトップでログインする。（必ず administrator でログインすること）" &amp; vbCrLf &amp; "２．「C:\HARP.JV.SSY.Onsei.Main\exe\SSYONSEI.exe_メンテConfigにする.bat」を実行し、「SSYONSEI.exe.config」が変更されていることを確認する。" &amp; vbCrLf &amp; "３．「C:\HARP.JV.SSY.Onsei.Main\wav\_____メンテ音声にする.bat」を実行し、「1003.wav」「1004.wav」が変更されていることを確認する。" &amp; vbCrLf &amp; "４．電話（011-522-2500）にて、施設予約の受付が可能であることを確認する。" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L6" s="213" t="str">
+      <c r="L6" s="212" t="str">
         <f>作業計画!N14</f>
         <v>□</v>
       </c>
-      <c r="M6" s="213" t="str">
+      <c r="M6" s="212" t="str">
         <f>作業計画!O14</f>
         <v>□</v>
       </c>
-      <c r="N6" s="213" t="str">
+      <c r="N6" s="212" t="str">
         <f>作業計画!P14</f>
         <v>□</v>
       </c>
-      <c r="O6" s="213" t="str">
+      <c r="O6" s="212" t="str">
         <f>作業計画!Q14</f>
         <v>□</v>
       </c>
-      <c r="P6" s="213" t="str">
+      <c r="P6" s="212" t="str">
         <f>作業計画!R14</f>
         <v>□</v>
       </c>
-      <c r="Q6" s="213" t="str">
+      <c r="Q6" s="212" t="str">
         <f>作業計画!S14</f>
         <v>□</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="216">
         <f>ROW(作業計画!A15)</f>
         <v>15</v>
       </c>
-      <c r="B7" s="212">
+      <c r="B7" s="219">
         <f>作業計画!A15</f>
         <v>7</v>
       </c>
-      <c r="C7" s="212" t="str">
+      <c r="C7" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B15), _xlfn.FORMULATEXT(作業計画!B15), TEXT(作業計画!B15,"HH:MM"))</f>
         <v>21:00</v>
       </c>
-      <c r="D7" s="212" t="str">
+      <c r="D7" s="219" t="str">
         <f ca="1">TEXT(作業計画!C15,"HH:MM")</f>
         <v>21:01</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="216">
         <f>作業計画!D15</f>
         <v>1</v>
       </c>
-      <c r="F7" s="213">
-        <f>作業計画!H15</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="213">
-        <f>作業計画!I15</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="213" t="str">
-        <f>作業計画!J15</f>
+      <c r="F7" s="216" t="str">
+        <f>IF(作業計画!H15=0, F6, 作業計画!H15)</f>
+        <v>本番</v>
+      </c>
+      <c r="G7" s="216" t="str">
+        <f>IF(作業計画!I15=0, G6, 作業計画!I15)</f>
+        <v>札幌</v>
+      </c>
+      <c r="H7" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J15, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>札幌施設予約看板（工事中）のONを確認</v>
       </c>
-      <c r="I7" s="213" t="str">
+      <c r="I7" s="216" t="str">
         <f>作業計画!K15</f>
         <v>佐藤</v>
       </c>
-      <c r="J7" s="213" t="str">
+      <c r="J7" s="216" t="str">
         <f>作業計画!L15</f>
         <v>HARP</v>
       </c>
-      <c r="K7" s="217" t="str">
+      <c r="K7" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M15, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．以下のURLにアクセスして利用者の看板（工事中）がONになっていることを確認する。" &amp; vbCrLf &amp; "　札幌 利用者：https://yoyaku.harp.lg.jp/resident/Menu.aspx" &amp; vbCrLf &amp; "２．カード発行端末から以下のURLにアクセスして管理者の看板（工事中）がONになっていることを確認する。" &amp; vbCrLf &amp; "　札幌 管理者：https://ssy.harp.local/011002" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L7" s="213" t="str">
+      <c r="L7" s="212" t="str">
         <f>作業計画!N15</f>
         <v>□</v>
       </c>
-      <c r="M7" s="213" t="str">
+      <c r="M7" s="212" t="str">
         <f>作業計画!O15</f>
         <v>□</v>
       </c>
-      <c r="N7" s="213" t="str">
+      <c r="N7" s="212" t="str">
         <f>作業計画!P15</f>
         <v>□</v>
       </c>
-      <c r="O7" s="213" t="str">
+      <c r="O7" s="212" t="str">
         <f>作業計画!Q15</f>
         <v>□</v>
       </c>
-      <c r="P7" s="213" t="str">
+      <c r="P7" s="212" t="str">
         <f>作業計画!R15</f>
         <v>□</v>
       </c>
-      <c r="Q7" s="213" t="str">
+      <c r="Q7" s="212" t="str">
         <f>作業計画!S15</f>
         <v>□</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="216">
         <f>ROW(作業計画!A16)</f>
         <v>16</v>
       </c>
-      <c r="B8" s="212">
+      <c r="B8" s="219">
         <f>作業計画!A16</f>
         <v>8</v>
       </c>
-      <c r="C8" s="212" t="str">
+      <c r="C8" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B16), _xlfn.FORMULATEXT(作業計画!B16), TEXT(作業計画!B16,"HH:MM"))</f>
         <v>21:00</v>
       </c>
-      <c r="D8" s="212" t="str">
+      <c r="D8" s="219" t="str">
         <f>TEXT(作業計画!C16,"HH:MM")</f>
         <v>21:05</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="216">
         <f>作業計画!D16</f>
         <v>5</v>
       </c>
-      <c r="F8" s="213">
-        <f>作業計画!H16</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="213">
-        <f>作業計画!I16</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="213" t="str">
-        <f>作業計画!J16</f>
+      <c r="F8" s="216" t="str">
+        <f>IF(作業計画!H16=0, F7, 作業計画!H16)</f>
+        <v>本番</v>
+      </c>
+      <c r="G8" s="216" t="str">
+        <f>IF(作業計画!I16=0, G7, 作業計画!I16)</f>
+        <v>札幌</v>
+      </c>
+      <c r="H8" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J16, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>音声メンテナンスモードへ(21時00分に実施)</v>
       </c>
-      <c r="I8" s="213" t="str">
+      <c r="I8" s="216" t="str">
         <f>作業計画!K16</f>
         <v>佐藤</v>
       </c>
-      <c r="J8" s="213" t="str">
+      <c r="J8" s="216" t="str">
         <f>作業計画!L16</f>
         <v>HARP</v>
       </c>
-      <c r="K8" s="217" t="str">
+      <c r="K8" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M16, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．音声終了時間設定反映のため、 音声サーバー(clsysapvs01) の再起動を行う。（スタートメニューから）" &amp; vbCrLf &amp; "２．再起動後、administrator でログインし、VOISTAGE のサービスが起動されていることを確認する。" &amp; vbCrLf &amp; "３．電話（011-522-2500）にて、メンテナンスメッセージが流れ電話が切れることを確認する。" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L8" s="213" t="str">
+      <c r="L8" s="212" t="str">
         <f>作業計画!N16</f>
         <v>□</v>
       </c>
-      <c r="M8" s="213" t="str">
+      <c r="M8" s="212" t="str">
         <f>作業計画!O16</f>
         <v>□</v>
       </c>
-      <c r="N8" s="213" t="str">
+      <c r="N8" s="212" t="str">
         <f>作業計画!P16</f>
         <v>□</v>
       </c>
-      <c r="O8" s="213" t="str">
+      <c r="O8" s="212" t="str">
         <f>作業計画!Q16</f>
         <v>□</v>
       </c>
-      <c r="P8" s="213" t="str">
+      <c r="P8" s="212" t="str">
         <f>作業計画!R16</f>
         <v>□</v>
       </c>
-      <c r="Q8" s="213" t="str">
+      <c r="Q8" s="212" t="str">
         <f>作業計画!S16</f>
         <v>□</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="216">
         <f>ROW(作業計画!A17)</f>
         <v>17</v>
       </c>
-      <c r="B9" s="212">
+      <c r="B9" s="219">
         <f>作業計画!A17</f>
         <v>9</v>
       </c>
-      <c r="C9" s="212" t="str">
+      <c r="C9" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B17), _xlfn.FORMULATEXT(作業計画!B17), TEXT(作業計画!B17,"HH:MM"))</f>
         <v>=C15</v>
       </c>
-      <c r="D9" s="212" t="str">
+      <c r="D9" s="219" t="str">
         <f ca="1">TEXT(作業計画!C17,"HH:MM")</f>
         <v>21:11</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="216">
         <f>作業計画!D17</f>
         <v>10</v>
       </c>
-      <c r="F9" s="213">
-        <f>作業計画!H17</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="213">
-        <f>作業計画!I17</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="213" t="str">
-        <f>作業計画!J17</f>
-        <v>スナップショット取得
-・施設予約札幌ＤＢサーバ( clsysapdb01 )
-・施設予約札幌ＡＰサーバ( clsysapap01 )</v>
-      </c>
-      <c r="I9" s="213" t="str">
+      <c r="F9" s="216" t="str">
+        <f>IF(作業計画!H17=0, F8, 作業計画!H17)</f>
+        <v>本番</v>
+      </c>
+      <c r="G9" s="216" t="str">
+        <f>IF(作業計画!I17=0, G8, 作業計画!I17)</f>
+        <v>札幌</v>
+      </c>
+      <c r="H9" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J17, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v>スナップショット取得" &amp; vbCrLf &amp; "・施設予約札幌ＤＢサーバ( clsysapdb01 )" &amp; vbCrLf &amp; "・施設予約札幌ＡＰサーバ( clsysapap01 )</v>
+      </c>
+      <c r="I9" s="216" t="str">
         <f>作業計画!K17</f>
         <v>佐藤</v>
       </c>
-      <c r="J9" s="213" t="str">
+      <c r="J9" s="216" t="str">
         <f>作業計画!L17</f>
         <v>HARP</v>
       </c>
-      <c r="K9" s="217" t="str">
+      <c r="K9" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M17, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１. 統合管理ターミナルサーバー(10.254.255.21) にリモートデスクトップでログインする。" &amp; vbCrLf &amp; "２. ブラウザで https://10.255.255.27/vsphere-client/ にアクセスし、ID : harpuser でログインする。" &amp; vbCrLf &amp; "３. ホームより「vCenter Inventory Lists」を選択" &amp; vbCrLf &amp; "４. 左側のツリーより「Virtual Machines」を選択" &amp; vbCrLf &amp; "５. 対象のホストを選択し右クリックから「Snapshots」→「Take snapshots..」を選択" &amp; vbCrLf &amp; "６. 名前「 20181127_施設予約計画停止 」をつけてOKをクリック" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L9" s="213" t="str">
+      <c r="L9" s="212" t="str">
         <f>作業計画!N17</f>
         <v>□</v>
       </c>
-      <c r="M9" s="213" t="str">
+      <c r="M9" s="212" t="str">
         <f>作業計画!O17</f>
         <v>□</v>
       </c>
-      <c r="N9" s="213" t="str">
+      <c r="N9" s="212" t="str">
         <f>作業計画!P17</f>
         <v>□</v>
       </c>
-      <c r="O9" s="213" t="str">
+      <c r="O9" s="212" t="str">
         <f>作業計画!Q17</f>
         <v>□</v>
       </c>
-      <c r="P9" s="213" t="str">
+      <c r="P9" s="212" t="str">
         <f>作業計画!R17</f>
         <v>□</v>
       </c>
-      <c r="Q9" s="213" t="str">
+      <c r="Q9" s="212" t="str">
         <f>作業計画!S17</f>
         <v>□</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="216">
         <f>ROW(作業計画!A18)</f>
         <v>18</v>
       </c>
-      <c r="B10" s="212">
+      <c r="B10" s="219">
         <f>作業計画!A18</f>
         <v>10</v>
       </c>
-      <c r="C10" s="212" t="str">
+      <c r="C10" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B18), _xlfn.FORMULATEXT(作業計画!B18), TEXT(作業計画!B18,"HH:MM"))</f>
         <v>=C16</v>
       </c>
-      <c r="D10" s="212" t="str">
+      <c r="D10" s="219" t="str">
         <f>TEXT(作業計画!C18,"HH:MM")</f>
         <v>21:25</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="216">
         <f>作業計画!D18</f>
         <v>20</v>
       </c>
-      <c r="F10" s="213">
-        <f>作業計画!H18</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="213">
-        <f>作業計画!I18</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="213" t="str">
-        <f>作業計画!J18</f>
+      <c r="F10" s="216" t="str">
+        <f>IF(作業計画!H18=0, F9, 作業計画!H18)</f>
+        <v>本番</v>
+      </c>
+      <c r="G10" s="216" t="str">
+        <f>IF(作業計画!I18=0, G9, 作業計画!I18)</f>
+        <v>札幌</v>
+      </c>
+      <c r="H10" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J18, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>Windowsパッチ適用(音声・DB・AP)</v>
       </c>
-      <c r="I10" s="213" t="str">
+      <c r="I10" s="216" t="str">
         <f>作業計画!K18</f>
         <v>佐藤</v>
       </c>
-      <c r="J10" s="213" t="str">
+      <c r="J10" s="216" t="str">
         <f>作業計画!L18</f>
         <v>HARP</v>
       </c>
-      <c r="K10" s="217" t="str">
+      <c r="K10" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M18, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．札幌DB(clsysapdb01)、札幌AP(clsysapap01)、音声(clsysapvs01)に以下のパッチをWindows Updateで適用する。Windows Updateが正常に機能しなかった場合は手動で適用する。パッチ適用後、サーバーを再起動する。" &amp; vbCrLf &amp; " ・windows8.1-kb4467697-x64_f588e695da8b44efda3fb0201aff8f0b0cfcf5bc.msu" &amp; vbCrLf &amp; " ・windows8.1-kb4467703-x64_61a1985243fe783a4095916160736a5cf8811a88.msu" &amp; vbCrLf &amp; " ・windows8.1-kb4466536-x64_4a888ca79a1568bcfeba556e93d8fb9b26842953.msu" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L10" s="213" t="str">
+      <c r="L10" s="212" t="str">
         <f>作業計画!N18</f>
         <v>□</v>
       </c>
-      <c r="M10" s="213" t="str">
+      <c r="M10" s="212" t="str">
         <f>作業計画!O18</f>
         <v>□</v>
       </c>
-      <c r="N10" s="213" t="str">
+      <c r="N10" s="212" t="str">
         <f>作業計画!P18</f>
         <v>□</v>
       </c>
-      <c r="O10" s="213" t="str">
+      <c r="O10" s="212" t="str">
         <f>作業計画!Q18</f>
         <v>□</v>
       </c>
-      <c r="P10" s="213" t="str">
+      <c r="P10" s="212" t="str">
         <f>作業計画!R18</f>
         <v>□</v>
       </c>
-      <c r="Q10" s="213" t="str">
+      <c r="Q10" s="212" t="str">
         <f>作業計画!S18</f>
         <v>□</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="216">
         <f>ROW(作業計画!A19)</f>
         <v>19</v>
       </c>
-      <c r="B11" s="212">
+      <c r="B11" s="219">
         <f>作業計画!A19</f>
         <v>11</v>
       </c>
-      <c r="C11" s="212" t="str">
+      <c r="C11" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B19), _xlfn.FORMULATEXT(作業計画!B19), TEXT(作業計画!B19,"HH:MM"))</f>
         <v>=C18</v>
       </c>
-      <c r="D11" s="212" t="str">
+      <c r="D11" s="219" t="str">
         <f>TEXT(作業計画!C19,"HH:MM")</f>
         <v>21:35</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="216">
         <f>作業計画!D19</f>
         <v>10</v>
       </c>
-      <c r="F11" s="213">
-        <f>作業計画!H19</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="213">
-        <f>作業計画!I19</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="213" t="str">
-        <f>作業計画!J19</f>
+      <c r="F11" s="216" t="str">
+        <f>IF(作業計画!H19=0, F10, 作業計画!H19)</f>
+        <v>本番</v>
+      </c>
+      <c r="G11" s="216" t="str">
+        <f>IF(作業計画!I19=0, G10, 作業計画!I19)</f>
+        <v>札幌</v>
+      </c>
+      <c r="H11" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J19, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>夜間バッチ手動実行(DBバックアップバッチ取得)</v>
       </c>
-      <c r="I11" s="213" t="str">
+      <c r="I11" s="216" t="str">
         <f>作業計画!K19</f>
         <v>佐藤</v>
       </c>
-      <c r="J11" s="213" t="str">
+      <c r="J11" s="216" t="str">
         <f>作業計画!L19</f>
         <v>HARP</v>
       </c>
-      <c r="K11" s="217" t="str">
+      <c r="K11" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M19, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>※バッチ実行前に、AP・DBの R:\harpBatch\SystemFiles\BatchDate.dat が「2018/11/27」になっていることを確認する。" &amp; vbCrLf &amp; "１．統合管理ターミナルサーバー(10.254.255.21)からHinemosクライアントを開き、以下のジョブを即時実行する。" &amp; vbCrLf &amp; "　　札幌_日次夜間バッチ（SAPPORO_DAILY_NIGHT_BATCH）" &amp; vbCrLf &amp; "　　　（ジョブ一覧より右クリック→実行）" &amp; vbCrLf &amp; "２．Hinemosのジョブ[履歴]タブにて、ジョブが正常終了していることを確認する。" &amp; vbCrLf &amp; "３．以下の件名のメールを受信していることを確認する。" &amp; vbCrLf &amp; "　　SSY_Night_Sapporo(情報)" &amp; vbCrLf &amp; "４．以下のフォルダに Before, After のDBバックアップファイルが作られていることを確認する。" &amp; vbCrLf &amp; "　　\\10.30.100.4\r$\MSSQL12.SYDB05\MSSQL\Backup " &amp; vbCrLf &amp; "５．以下のバッチログを確認し、異常が出ていないことを確認する。" &amp; vbCrLf &amp; "　　\\10.30.100.4\r$\harpBatch\Logs" &amp; vbCrLf &amp; "６．以下のAPサーバーのバッチログを確認し、納付情報取込処理が正常に完了したことを確認する。" &amp; vbCrLf &amp; "　　\\10.30.100.1\d$\harpBatch\Logs\NoufuJouhouTorikomi_20181030.log" &amp; vbCrLf &amp; "※バッチ実行後に、DBの R:\harpBatch\SystemFiles\BatchDate.dat が「2018/11/28」になっていることを確認する。" &amp; vbCrLf &amp; "" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L11" s="213" t="str">
+      <c r="L11" s="212" t="str">
         <f>作業計画!N19</f>
         <v>□</v>
       </c>
-      <c r="M11" s="213" t="str">
+      <c r="M11" s="212" t="str">
         <f>作業計画!O19</f>
         <v>□</v>
       </c>
-      <c r="N11" s="213" t="str">
+      <c r="N11" s="212" t="str">
         <f>作業計画!P19</f>
         <v>□</v>
       </c>
-      <c r="O11" s="213" t="str">
+      <c r="O11" s="212" t="str">
         <f>作業計画!Q19</f>
         <v>□</v>
       </c>
-      <c r="P11" s="213" t="str">
+      <c r="P11" s="212" t="str">
         <f>作業計画!R19</f>
         <v>□</v>
       </c>
-      <c r="Q11" s="213" t="str">
+      <c r="Q11" s="212" t="str">
         <f>作業計画!S19</f>
         <v>□</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="216">
         <f>ROW(作業計画!A20)</f>
         <v>20</v>
       </c>
-      <c r="B12" s="212">
+      <c r="B12" s="219">
         <f>作業計画!A20</f>
         <v>12</v>
       </c>
-      <c r="C12" s="212" t="str">
+      <c r="C12" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B20), _xlfn.FORMULATEXT(作業計画!B20), TEXT(作業計画!B20,"HH:MM"))</f>
         <v>=C19</v>
       </c>
-      <c r="D12" s="212" t="str">
+      <c r="D12" s="219" t="str">
         <f>TEXT(作業計画!C20,"HH:MM")</f>
         <v>21:45</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="216">
         <f>作業計画!D20</f>
         <v>10</v>
       </c>
-      <c r="F12" s="213">
-        <f>作業計画!H20</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="213">
-        <f>作業計画!I20</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="213" t="str">
-        <f>作業計画!J20</f>
+      <c r="F12" s="216" t="str">
+        <f>IF(作業計画!H20=0, F11, 作業計画!H20)</f>
+        <v>本番</v>
+      </c>
+      <c r="G12" s="216" t="str">
+        <f>IF(作業計画!I20=0, G11, 作業計画!I20)</f>
+        <v>札幌</v>
+      </c>
+      <c r="H12" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J20, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>期限切れセッションデータ削除</v>
       </c>
-      <c r="I12" s="213" t="str">
+      <c r="I12" s="216" t="str">
         <f>作業計画!K20</f>
         <v>佐々木</v>
       </c>
-      <c r="J12" s="213" t="str">
+      <c r="J12" s="216" t="str">
         <f>作業計画!L20</f>
         <v>HARP</v>
       </c>
-      <c r="K12" s="217" t="str">
+      <c r="K12" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M20, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>SQL Server Management Studio から[ASPState]-[プログラミング]-[ストアドプロシージャ]-[DeleteExpiredSessions]を右クリックし、「ストアドプロシージャの実行」をクリックする。" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L12" s="213" t="str">
+      <c r="L12" s="212" t="str">
         <f>作業計画!N20</f>
         <v>□</v>
       </c>
-      <c r="M12" s="213" t="str">
+      <c r="M12" s="212" t="str">
         <f>作業計画!O20</f>
         <v>□</v>
       </c>
-      <c r="N12" s="213" t="str">
+      <c r="N12" s="212" t="str">
         <f>作業計画!P20</f>
         <v>□</v>
       </c>
-      <c r="O12" s="213" t="str">
+      <c r="O12" s="212" t="str">
         <f>作業計画!Q20</f>
         <v>□</v>
       </c>
-      <c r="P12" s="213" t="str">
+      <c r="P12" s="212" t="str">
         <f>作業計画!R20</f>
         <v>□</v>
       </c>
-      <c r="Q12" s="213" t="str">
+      <c r="Q12" s="212" t="str">
         <f>作業計画!S20</f>
         <v>□</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="216">
         <f>ROW(作業計画!A21)</f>
         <v>21</v>
       </c>
-      <c r="B13" s="212">
+      <c r="B13" s="219">
         <f>作業計画!A21</f>
         <v>13</v>
       </c>
-      <c r="C13" s="212" t="str">
+      <c r="C13" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B21), _xlfn.FORMULATEXT(作業計画!B21), TEXT(作業計画!B21,"HH:MM"))</f>
         <v>=C19</v>
       </c>
-      <c r="D13" s="212" t="str">
+      <c r="D13" s="219" t="str">
         <f>TEXT(作業計画!C21,"HH:MM")</f>
         <v>21:45</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="216">
         <f>作業計画!D21</f>
         <v>10</v>
       </c>
-      <c r="F13" s="213">
-        <f>作業計画!H21</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="213">
-        <f>作業計画!I21</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="213" t="str">
-        <f>作業計画!J21</f>
+      <c r="F13" s="216" t="str">
+        <f>IF(作業計画!H21=0, F12, 作業計画!H21)</f>
+        <v>本番</v>
+      </c>
+      <c r="G13" s="216" t="str">
+        <f>IF(作業計画!I21=0, G12, 作業計画!I21)</f>
+        <v>札幌</v>
+      </c>
+      <c r="H13" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J21, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>モジュール適用</v>
       </c>
-      <c r="I13" s="213" t="str">
+      <c r="I13" s="216" t="str">
         <f>作業計画!K21</f>
         <v>佐々木</v>
       </c>
-      <c r="J13" s="213" t="str">
+      <c r="J13" s="216" t="str">
         <f>作業計画!L21</f>
         <v>HARP</v>
       </c>
-      <c r="K13" s="217" t="str">
+      <c r="K13" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M21, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．事前作業において準備済みのリリースモジュールを、札幌AP(clsysapap01)の以下のフォルダに対してコピーする。" &amp; vbCrLf &amp; "　D:\harpWeb\ap1\resident" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L13" s="213" t="str">
+      <c r="L13" s="212" t="str">
         <f>作業計画!N21</f>
         <v>□</v>
       </c>
-      <c r="M13" s="213" t="str">
+      <c r="M13" s="212" t="str">
         <f>作業計画!O21</f>
         <v>□</v>
       </c>
-      <c r="N13" s="213" t="str">
+      <c r="N13" s="212" t="str">
         <f>作業計画!P21</f>
         <v>□</v>
       </c>
-      <c r="O13" s="213" t="str">
+      <c r="O13" s="212" t="str">
         <f>作業計画!Q21</f>
         <v>□</v>
       </c>
-      <c r="P13" s="213" t="str">
+      <c r="P13" s="212" t="str">
         <f>作業計画!R21</f>
         <v>□</v>
       </c>
-      <c r="Q13" s="213" t="str">
+      <c r="Q13" s="212" t="str">
         <f>作業計画!S21</f>
         <v>□</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="216">
         <f>ROW(作業計画!A22)</f>
         <v>22</v>
       </c>
-      <c r="B14" s="212">
+      <c r="B14" s="219">
         <f>作業計画!A22</f>
         <v>14</v>
       </c>
-      <c r="C14" s="212" t="str">
+      <c r="C14" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B22), _xlfn.FORMULATEXT(作業計画!B22), TEXT(作業計画!B22,"HH:MM"))</f>
         <v>=C20</v>
       </c>
-      <c r="D14" s="212" t="str">
+      <c r="D14" s="219" t="str">
         <f>TEXT(作業計画!C22,"HH:MM")</f>
         <v>21:55</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="216">
         <f>作業計画!D22</f>
         <v>10</v>
       </c>
-      <c r="F14" s="213">
-        <f>作業計画!H22</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="213">
-        <f>作業計画!I22</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="213" t="str">
-        <f>作業計画!J22</f>
+      <c r="F14" s="216" t="str">
+        <f>IF(作業計画!H22=0, F13, 作業計画!H22)</f>
+        <v>本番</v>
+      </c>
+      <c r="G14" s="216" t="str">
+        <f>IF(作業計画!I22=0, G13, 作業計画!I22)</f>
+        <v>札幌</v>
+      </c>
+      <c r="H14" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J22, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>動作確認</v>
       </c>
-      <c r="I14" s="213" t="str">
+      <c r="I14" s="216" t="str">
         <f>作業計画!K22</f>
         <v>佐々木</v>
       </c>
-      <c r="J14" s="213" t="str">
+      <c r="J14" s="216" t="str">
         <f>作業計画!L22</f>
         <v>HARP</v>
       </c>
-      <c r="K14" s="217" t="str">
+      <c r="K14" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M22, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>別紙「動作確認(札幌)」に従い、動作確認を行う。" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L14" s="213" t="str">
+      <c r="L14" s="212" t="str">
         <f>作業計画!N22</f>
         <v>□</v>
       </c>
-      <c r="M14" s="213" t="str">
+      <c r="M14" s="212" t="str">
         <f>作業計画!O22</f>
         <v>□</v>
       </c>
-      <c r="N14" s="213" t="str">
+      <c r="N14" s="212" t="str">
         <f>作業計画!P22</f>
         <v>□</v>
       </c>
-      <c r="O14" s="213" t="str">
+      <c r="O14" s="212" t="str">
         <f>作業計画!Q22</f>
         <v>□</v>
       </c>
-      <c r="P14" s="213" t="str">
+      <c r="P14" s="212" t="str">
         <f>作業計画!R22</f>
         <v>□</v>
       </c>
-      <c r="Q14" s="213" t="str">
+      <c r="Q14" s="212" t="str">
         <f>作業計画!S22</f>
         <v>□</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="A15" s="216">
         <f>ROW(作業計画!A23)</f>
         <v>23</v>
       </c>
-      <c r="B15" s="212">
+      <c r="B15" s="219">
         <f>作業計画!A23</f>
         <v>15</v>
       </c>
-      <c r="C15" s="212" t="str">
+      <c r="C15" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B23), _xlfn.FORMULATEXT(作業計画!B23), TEXT(作業計画!B23,"HH:MM"))</f>
         <v>23:00</v>
       </c>
-      <c r="D15" s="212" t="str">
+      <c r="D15" s="219" t="str">
         <f ca="1">TEXT(作業計画!C23,"HH:MM")</f>
         <v>23:05</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="216">
         <f>作業計画!D23</f>
         <v>5</v>
       </c>
-      <c r="F15" s="213">
-        <f>作業計画!H23</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="213">
-        <f>作業計画!I23</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="213" t="str">
-        <f>作業計画!J23</f>
+      <c r="F15" s="216" t="str">
+        <f>IF(作業計画!H23=0, F14, 作業計画!H23)</f>
+        <v>本番</v>
+      </c>
+      <c r="G15" s="216" t="str">
+        <f>IF(作業計画!I23=0, G14, 作業計画!I23)</f>
+        <v>札幌</v>
+      </c>
+      <c r="H15" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J23, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>看板（時間外）確認</v>
       </c>
-      <c r="I15" s="213" t="str">
+      <c r="I15" s="216" t="str">
         <f>作業計画!K23</f>
         <v>佐藤</v>
       </c>
-      <c r="J15" s="213" t="str">
+      <c r="J15" s="216" t="str">
         <f>作業計画!L23</f>
         <v>HARP</v>
       </c>
-      <c r="K15" s="217" t="str">
+      <c r="K15" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M23, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．本番URL（https://yoyaku.harp.lg.jp/）にアクセスし、看板（時間外）が表示されることを確認する。" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L15" s="213" t="str">
+      <c r="L15" s="212" t="str">
         <f>作業計画!N23</f>
         <v>□</v>
       </c>
-      <c r="M15" s="213" t="str">
+      <c r="M15" s="212" t="str">
         <f>作業計画!O23</f>
         <v>□</v>
       </c>
-      <c r="N15" s="213" t="str">
+      <c r="N15" s="212" t="str">
         <f>作業計画!P23</f>
         <v>□</v>
       </c>
-      <c r="O15" s="213" t="str">
+      <c r="O15" s="212" t="str">
         <f>作業計画!Q23</f>
         <v>□</v>
       </c>
-      <c r="P15" s="213" t="str">
+      <c r="P15" s="212" t="str">
         <f>作業計画!R23</f>
         <v>□</v>
       </c>
-      <c r="Q15" s="213" t="str">
+      <c r="Q15" s="212" t="str">
         <f>作業計画!S23</f>
         <v>□</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="108" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="216">
         <f>ROW(作業計画!A24)</f>
         <v>24</v>
       </c>
-      <c r="B16" s="212">
+      <c r="B16" s="219">
         <f>作業計画!A24</f>
         <v>16</v>
       </c>
-      <c r="C16" s="212" t="str">
+      <c r="C16" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B24), _xlfn.FORMULATEXT(作業計画!B24), TEXT(作業計画!B24,"HH:MM"))</f>
         <v>23:00</v>
       </c>
-      <c r="D16" s="212" t="str">
+      <c r="D16" s="219" t="str">
         <f ca="1">TEXT(作業計画!C24,"HH:MM")</f>
         <v>23:05</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="216">
         <f>作業計画!D24</f>
         <v>5</v>
       </c>
-      <c r="F16" s="213">
-        <f>作業計画!H24</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="213">
-        <f>作業計画!I24</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="213" t="str">
-        <f>作業計画!J24</f>
-        <v>音声サービス終了時間を23:00へ変更
-（再起動は23:00以降に実施）</v>
-      </c>
-      <c r="I16" s="213" t="str">
+      <c r="F16" s="216" t="str">
+        <f>IF(作業計画!H24=0, F15, 作業計画!H24)</f>
+        <v>本番</v>
+      </c>
+      <c r="G16" s="216" t="str">
+        <f>IF(作業計画!I24=0, G15, 作業計画!I24)</f>
+        <v>札幌</v>
+      </c>
+      <c r="H16" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J24, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v>音声サービス終了時間を23:00へ変更" &amp; vbCrLf &amp; "（再起動は23:00以降に実施）</v>
+      </c>
+      <c r="I16" s="216" t="str">
         <f>作業計画!K24</f>
         <v>佐藤</v>
       </c>
-      <c r="J16" s="213" t="str">
+      <c r="J16" s="216" t="str">
         <f>作業計画!L24</f>
         <v>HARP</v>
       </c>
-      <c r="K16" s="217" t="str">
+      <c r="K16" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M24, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．音声サーバー(clsysapvs01) にリモートデスクトップでログインする。（必ず administrator でログインすること）" &amp; vbCrLf &amp; "２．「C:\HARP.JV.SSY.Onsei.Main\exe\SSYONSEI.exe_通常Configにする.bat」を実行し、「SSYONSEI.exe.config」が変更されていることを確認する。" &amp; vbCrLf &amp; "３．「C:\HARP.JV.SSY.Onsei.Main\wav\_____通常音声にする.bat」を実行し、「1003.wav」「1004.wav」が変更されていることを確認する。" &amp; vbCrLf &amp; "４．設定反映のため、 音声サーバー(clsysapvs01) の再起動を行う。（スタートメニューから）" &amp; vbCrLf &amp; "５．再起動後、administrator でログインし、VOISTAGE のサービスが起動されていることを確認する。" &amp; vbCrLf &amp; "６．電話（011-522-2500）にて、通常の時間外メッセージであることを確認する。" &amp; vbCrLf &amp; "" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L16" s="213" t="str">
+      <c r="L16" s="212" t="str">
         <f>作業計画!N24</f>
         <v>□</v>
       </c>
-      <c r="M16" s="213" t="str">
+      <c r="M16" s="212" t="str">
         <f>作業計画!O24</f>
         <v>□</v>
       </c>
-      <c r="N16" s="213" t="str">
+      <c r="N16" s="212" t="str">
         <f>作業計画!P24</f>
         <v>□</v>
       </c>
-      <c r="O16" s="213" t="str">
+      <c r="O16" s="212" t="str">
         <f>作業計画!Q24</f>
         <v>□</v>
       </c>
-      <c r="P16" s="213" t="str">
+      <c r="P16" s="212" t="str">
         <f>作業計画!R24</f>
         <v>□</v>
       </c>
-      <c r="Q16" s="213" t="str">
+      <c r="Q16" s="212" t="str">
         <f>作業計画!S24</f>
         <v>□</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="216">
         <f>ROW(作業計画!A25)</f>
         <v>25</v>
       </c>
-      <c r="B17" s="212">
+      <c r="B17" s="219">
         <f>作業計画!A25</f>
         <v>17</v>
       </c>
-      <c r="C17" s="212" t="str">
+      <c r="C17" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B25), _xlfn.FORMULATEXT(作業計画!B25), TEXT(作業計画!B25,"HH:MM"))</f>
         <v>22:00</v>
       </c>
-      <c r="D17" s="212" t="str">
+      <c r="D17" s="219" t="str">
         <f ca="1">TEXT(作業計画!C25,"HH:MM")</f>
         <v>22:05</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="216">
         <f>作業計画!D25</f>
         <v>5</v>
       </c>
-      <c r="F17" s="213">
-        <f>作業計画!H25</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="213" t="str">
-        <f>作業計画!I25</f>
+      <c r="F17" s="216" t="str">
+        <f>IF(作業計画!H25=0, F16, 作業計画!H25)</f>
+        <v>本番</v>
+      </c>
+      <c r="G17" s="216" t="str">
+        <f>IF(作業計画!I25=0, G16, 作業計画!I25)</f>
         <v>広域</v>
       </c>
-      <c r="H17" s="213" t="str">
-        <f>作業計画!J25</f>
+      <c r="H17" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J25, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>看板（工事中）を確認</v>
       </c>
-      <c r="I17" s="213" t="str">
+      <c r="I17" s="216" t="str">
         <f>作業計画!K25</f>
         <v>佐々木</v>
       </c>
-      <c r="J17" s="213" t="str">
+      <c r="J17" s="216" t="str">
         <f>作業計画!L25</f>
         <v>HARP</v>
       </c>
-      <c r="K17" s="217" t="str">
+      <c r="K17" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M25, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．各団体の利用者、管理者ページにアクセスして看板（工事中）がONになっていることを確認する。" &amp; vbCrLf &amp; "" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L17" s="213" t="str">
+      <c r="L17" s="212" t="str">
         <f>作業計画!N25</f>
         <v>□</v>
       </c>
-      <c r="M17" s="213" t="str">
+      <c r="M17" s="212" t="str">
         <f>作業計画!O25</f>
         <v>□</v>
       </c>
-      <c r="N17" s="213" t="str">
+      <c r="N17" s="212" t="str">
         <f>作業計画!P25</f>
         <v>□</v>
       </c>
-      <c r="O17" s="213" t="str">
+      <c r="O17" s="212" t="str">
         <f>作業計画!Q25</f>
         <v>□</v>
       </c>
-      <c r="P17" s="213" t="str">
+      <c r="P17" s="212" t="str">
         <f>作業計画!R25</f>
         <v>□</v>
       </c>
-      <c r="Q17" s="213" t="str">
+      <c r="Q17" s="212" t="str">
         <f>作業計画!S25</f>
         <v>□</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="A18" s="216">
         <f>ROW(作業計画!A26)</f>
         <v>26</v>
       </c>
-      <c r="B18" s="212">
+      <c r="B18" s="219">
         <f>作業計画!A26</f>
         <v>18</v>
       </c>
-      <c r="C18" s="212" t="str">
+      <c r="C18" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B26), _xlfn.FORMULATEXT(作業計画!B26), TEXT(作業計画!B26,"HH:MM"))</f>
         <v>=C25</v>
       </c>
-      <c r="D18" s="212" t="str">
+      <c r="D18" s="219" t="str">
         <f ca="1">TEXT(作業計画!C26,"HH:MM")</f>
         <v>22:10</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="216">
         <f>作業計画!D26</f>
         <v>5</v>
       </c>
-      <c r="F18" s="213">
-        <f>作業計画!H26</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="213">
-        <f>作業計画!I26</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="213" t="str">
-        <f>作業計画!J26</f>
+      <c r="F18" s="216" t="str">
+        <f>IF(作業計画!H26=0, F17, 作業計画!H26)</f>
+        <v>本番</v>
+      </c>
+      <c r="G18" s="216" t="str">
+        <f>IF(作業計画!I26=0, G17, 作業計画!I26)</f>
+        <v>広域</v>
+      </c>
+      <c r="H18" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J26, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>本番PDFサーバ電源OFF</v>
       </c>
-      <c r="I18" s="213" t="str">
+      <c r="I18" s="216" t="str">
         <f>作業計画!K26</f>
         <v>佐藤</v>
       </c>
-      <c r="J18" s="213" t="str">
+      <c r="J18" s="216" t="str">
         <f>作業計画!L26</f>
         <v>HARP</v>
       </c>
-      <c r="K18" s="217" t="str">
+      <c r="K18" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M26, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．本番ＰＤＦサーバ２号機( cldspdfap02 )にリモートデスクトップでログインする。（必ず administrator でログインすること）" &amp; vbCrLf &amp; "２．左下のWindowsメニューを開いて電源アイコンを選択し「シャットダウン」をクリックする。</v>
       </c>
-      <c r="L18" s="213" t="str">
+      <c r="L18" s="212" t="str">
         <f>作業計画!N26</f>
         <v>□</v>
       </c>
-      <c r="M18" s="213" t="str">
+      <c r="M18" s="212" t="str">
         <f>作業計画!O26</f>
         <v>□</v>
       </c>
-      <c r="N18" s="213" t="str">
+      <c r="N18" s="212" t="str">
         <f>作業計画!P26</f>
         <v>□</v>
       </c>
-      <c r="O18" s="213" t="str">
+      <c r="O18" s="212" t="str">
         <f>作業計画!Q26</f>
         <v>□</v>
       </c>
-      <c r="P18" s="213" t="str">
+      <c r="P18" s="212" t="str">
         <f>作業計画!R26</f>
         <v>□</v>
       </c>
-      <c r="Q18" s="213" t="str">
+      <c r="Q18" s="212" t="str">
         <f>作業計画!S26</f>
         <v>□</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="A19" s="216">
         <f>ROW(作業計画!A27)</f>
         <v>27</v>
       </c>
-      <c r="B19" s="212">
+      <c r="B19" s="219">
         <f>作業計画!A27</f>
         <v>19</v>
       </c>
-      <c r="C19" s="212" t="str">
+      <c r="C19" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B27), _xlfn.FORMULATEXT(作業計画!B27), TEXT(作業計画!B27,"HH:MM"))</f>
         <v>=C26</v>
       </c>
-      <c r="D19" s="212" t="str">
+      <c r="D19" s="219" t="str">
         <f ca="1">TEXT(作業計画!C27,"HH:MM")</f>
         <v>22:20</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="216">
         <f>作業計画!D27</f>
         <v>10</v>
       </c>
-      <c r="F19" s="213">
-        <f>作業計画!H27</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="213">
-        <f>作業計画!I27</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="213" t="str">
-        <f>作業計画!J27</f>
+      <c r="F19" s="216" t="str">
+        <f>IF(作業計画!H27=0, F18, 作業計画!H27)</f>
+        <v>本番</v>
+      </c>
+      <c r="G19" s="216" t="str">
+        <f>IF(作業計画!I27=0, G18, 作業計画!I27)</f>
+        <v>広域</v>
+      </c>
+      <c r="H19" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J27, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>本番PDFサーバCPU追加</v>
       </c>
-      <c r="I19" s="213" t="str">
+      <c r="I19" s="216" t="str">
         <f>作業計画!K27</f>
         <v>基盤チーム</v>
       </c>
-      <c r="J19" s="213" t="str">
+      <c r="J19" s="216" t="str">
         <f>作業計画!L27</f>
         <v>HARP</v>
       </c>
-      <c r="K19" s="217" t="str">
+      <c r="K19" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M27, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>基盤チームの作業手順：スナップショットの取得　→　CPUリソース追加　→　電源ON" &amp; vbCrLf &amp; "※施設予約チームの担当箇所：作業前の電源OFF、作業後の動作確認・スナップショット削除</v>
       </c>
-      <c r="L19" s="213" t="str">
+      <c r="L19" s="212" t="str">
         <f>作業計画!N27</f>
         <v>□</v>
       </c>
-      <c r="M19" s="213" t="str">
+      <c r="M19" s="212" t="str">
         <f>作業計画!O27</f>
         <v>□</v>
       </c>
-      <c r="N19" s="213" t="str">
+      <c r="N19" s="212" t="str">
         <f>作業計画!P27</f>
         <v>□</v>
       </c>
-      <c r="O19" s="213" t="str">
+      <c r="O19" s="212" t="str">
         <f>作業計画!Q27</f>
         <v>□</v>
       </c>
-      <c r="P19" s="213" t="str">
+      <c r="P19" s="212" t="str">
         <f>作業計画!R27</f>
         <v>□</v>
       </c>
-      <c r="Q19" s="213" t="str">
+      <c r="Q19" s="212" t="str">
         <f>作業計画!S27</f>
         <v>□</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="A20" s="216">
         <f>ROW(作業計画!A28)</f>
         <v>28</v>
       </c>
-      <c r="B20" s="212">
+      <c r="B20" s="219">
         <f>作業計画!A28</f>
         <v>20</v>
       </c>
-      <c r="C20" s="212" t="str">
+      <c r="C20" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B28), _xlfn.FORMULATEXT(作業計画!B28), TEXT(作業計画!B28,"HH:MM"))</f>
         <v>=C27</v>
       </c>
-      <c r="D20" s="212" t="str">
+      <c r="D20" s="219" t="str">
         <f ca="1">TEXT(作業計画!C28,"HH:MM")</f>
         <v>22:35</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="216">
         <f>作業計画!D28</f>
         <v>15</v>
       </c>
-      <c r="F20" s="213">
-        <f>作業計画!H28</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="213">
-        <f>作業計画!I28</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="213" t="str">
-        <f>作業計画!J28</f>
-        <v>スナップショット取得
-・施設予約広域ＤＢサーバ( clsymuldb01 )
-・施設予約広域ＡＰサーバ( clsymulap01 )
-※本番ＰＤＦサーバ２号機( cldspdfap12 )は基盤チームが取得するため不要</v>
-      </c>
-      <c r="I20" s="213" t="str">
+      <c r="F20" s="216" t="str">
+        <f>IF(作業計画!H28=0, F19, 作業計画!H28)</f>
+        <v>本番</v>
+      </c>
+      <c r="G20" s="216" t="str">
+        <f>IF(作業計画!I28=0, G19, 作業計画!I28)</f>
+        <v>広域</v>
+      </c>
+      <c r="H20" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J28, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v>スナップショット取得" &amp; vbCrLf &amp; "・施設予約広域ＤＢサーバ( clsymuldb01 )" &amp; vbCrLf &amp; "・施設予約広域ＡＰサーバ( clsymulap01 )" &amp; vbCrLf &amp; "" &amp; vbCrLf &amp; "※本番ＰＤＦサーバ２号機( cldspdfap12 )は基盤チームが取得するため不要</v>
+      </c>
+      <c r="I20" s="216" t="str">
         <f>作業計画!K28</f>
         <v>佐藤</v>
       </c>
-      <c r="J20" s="213" t="str">
+      <c r="J20" s="216" t="str">
         <f>作業計画!L28</f>
         <v>HARP</v>
       </c>
-      <c r="K20" s="217" t="str">
+      <c r="K20" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M28, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１. 統合管理ターミナルサーバー(10.254.255.21) にリモートデスクトップでログインする。" &amp; vbCrLf &amp; "２. ブラウザで https://10.255.255.27/vsphere-client/ にアクセスし、ID : harpuser でログインする。" &amp; vbCrLf &amp; "３. ホームより「vCenter Inventory Lists」を選択" &amp; vbCrLf &amp; "４. 左側のツリーより「Virtual Machines」を選択" &amp; vbCrLf &amp; "５. 対象のホストを選択し右クリックから「Snapshots」→「Take snapshots..」を選択" &amp; vbCrLf &amp; "６. 名前「 20181127_施設予約計画停止 」をつけてOKをクリック" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L20" s="213" t="str">
+      <c r="L20" s="212" t="str">
         <f>作業計画!N28</f>
         <v>□</v>
       </c>
-      <c r="M20" s="213" t="str">
+      <c r="M20" s="212" t="str">
         <f>作業計画!O28</f>
         <v>□</v>
       </c>
-      <c r="N20" s="213" t="str">
+      <c r="N20" s="212" t="str">
         <f>作業計画!P28</f>
         <v>□</v>
       </c>
-      <c r="O20" s="213" t="str">
+      <c r="O20" s="212" t="str">
         <f>作業計画!Q28</f>
         <v>□</v>
       </c>
-      <c r="P20" s="213" t="str">
+      <c r="P20" s="212" t="str">
         <f>作業計画!R28</f>
         <v>□</v>
       </c>
-      <c r="Q20" s="213" t="str">
+      <c r="Q20" s="212" t="str">
         <f>作業計画!S28</f>
         <v>□</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="A21" s="216">
         <f>ROW(作業計画!A29)</f>
         <v>29</v>
       </c>
-      <c r="B21" s="212">
+      <c r="B21" s="219">
         <f>作業計画!A29</f>
         <v>21</v>
       </c>
-      <c r="C21" s="212" t="str">
+      <c r="C21" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B29), _xlfn.FORMULATEXT(作業計画!B29), TEXT(作業計画!B29,"HH:MM"))</f>
         <v>=C28</v>
       </c>
-      <c r="D21" s="212" t="str">
+      <c r="D21" s="219" t="str">
         <f ca="1">TEXT(作業計画!C29,"HH:MM")</f>
         <v>23:45</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="216">
         <f>作業計画!D29</f>
         <v>70</v>
       </c>
-      <c r="F21" s="213">
-        <f>作業計画!H29</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="213">
-        <f>作業計画!I29</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="213" t="str">
-        <f>作業計画!J29</f>
+      <c r="F21" s="216" t="str">
+        <f>IF(作業計画!H29=0, F20, 作業計画!H29)</f>
+        <v>本番</v>
+      </c>
+      <c r="G21" s="216" t="str">
+        <f>IF(作業計画!I29=0, G20, 作業計画!I29)</f>
+        <v>広域</v>
+      </c>
+      <c r="H21" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J29, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>Windowsパッチ適用(DB・AP・PDFサーバー)</v>
       </c>
-      <c r="I21" s="213" t="str">
+      <c r="I21" s="216" t="str">
         <f>作業計画!K29</f>
         <v>佐々木</v>
       </c>
-      <c r="J21" s="213" t="str">
+      <c r="J21" s="216" t="str">
         <f>作業計画!L29</f>
         <v>HARP</v>
       </c>
-      <c r="K21" s="217" t="str">
+      <c r="K21" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M29, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．広域DB(clsymuldb01)、広域AP(clsymulap01)に以下のパッチをWindows Updateで適用する。Windows Updateが正常に機能しなかった場合は手動で適用する。パッチ適用後、サーバーを再起動する。" &amp; vbCrLf &amp; " ・windows8.1-kb4467697-x64_f588e695da8b44efda3fb0201aff8f0b0cfcf5bc.msu" &amp; vbCrLf &amp; " ・windows8.1-kb4467703-x64_61a1985243fe783a4095916160736a5cf8811a88.msu" &amp; vbCrLf &amp; " ・windows8.1-kb4466536-x64_4a888ca79a1568bcfeba556e93d8fb9b26842953.msu" &amp; vbCrLf &amp; "" &amp; vbCrLf &amp; "２．本番PDFサーバー(cldspdfap02)に以下のパッチ①を手動で適用する。Windows Updateが正常に機能しなかった場合は手動で適用する。パッチ適用後、サーバーを再起動する。" &amp; vbCrLf &amp; " ・（差分）windows10.0-kb4467691-x64delta6b9a46894017c7fc7776f896b0a8123ede03b8f6.msu" &amp; vbCrLf &amp; " ・（累積）windows10.0-kb4467691-x64_c1884b8c61fd7837b4a59a3aa7b87707474a8c12.msu" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L21" s="213" t="str">
+      <c r="L21" s="212" t="str">
         <f>作業計画!N29</f>
         <v>□</v>
       </c>
-      <c r="M21" s="213" t="str">
+      <c r="M21" s="212" t="str">
         <f>作業計画!O29</f>
         <v>□</v>
       </c>
-      <c r="N21" s="213" t="str">
+      <c r="N21" s="212" t="str">
         <f>作業計画!P29</f>
         <v>□</v>
       </c>
-      <c r="O21" s="213" t="str">
+      <c r="O21" s="212" t="str">
         <f>作業計画!Q29</f>
         <v>□</v>
       </c>
-      <c r="P21" s="213" t="str">
+      <c r="P21" s="212" t="str">
         <f>作業計画!R29</f>
         <v>□</v>
       </c>
-      <c r="Q21" s="213" t="str">
+      <c r="Q21" s="212" t="str">
         <f>作業計画!S29</f>
         <v>□</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="189" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="A22" s="216">
         <f>ROW(作業計画!A30)</f>
         <v>30</v>
       </c>
-      <c r="B22" s="212">
+      <c r="B22" s="219">
         <f>作業計画!A30</f>
         <v>22</v>
       </c>
-      <c r="C22" s="212" t="str">
+      <c r="C22" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B30), _xlfn.FORMULATEXT(作業計画!B30), TEXT(作業計画!B30,"HH:MM"))</f>
         <v>=B29+"00:25"</v>
       </c>
-      <c r="D22" s="212" t="str">
+      <c r="D22" s="219" t="str">
         <f ca="1">TEXT(作業計画!C30,"HH:MM")</f>
         <v>23:25</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="216">
         <f>作業計画!D30</f>
         <v>25</v>
       </c>
-      <c r="F22" s="213">
-        <f>作業計画!H30</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="213">
-        <f>作業計画!I30</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="213" t="str">
-        <f>作業計画!J30</f>
+      <c r="F22" s="216" t="str">
+        <f>IF(作業計画!H30=0, F21, 作業計画!H30)</f>
+        <v>本番</v>
+      </c>
+      <c r="G22" s="216" t="str">
+        <f>IF(作業計画!I30=0, G21, 作業計画!I30)</f>
+        <v>広域</v>
+      </c>
+      <c r="H22" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J30, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>夜間バッチ手動実行(DBバックアップバッチ取得)</v>
       </c>
-      <c r="I22" s="213" t="str">
+      <c r="I22" s="216" t="str">
         <f>作業計画!K30</f>
         <v>佐々木</v>
       </c>
-      <c r="J22" s="213" t="str">
+      <c r="J22" s="216" t="str">
         <f>作業計画!L30</f>
         <v>HARP</v>
       </c>
-      <c r="K22" s="217" t="str">
+      <c r="K22" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M30, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>※バッチ実行前に、AP・DBのBatchDate.datが「2018/11/27」になっていることを確認する。" &amp; vbCrLf &amp; "１．統合管理ターミナルサーバー(10.254.255.21)からHinemosクライアントを開き、以下のジョブを即時実行する。" &amp; vbCrLf &amp; "　　（ジョブ一覧より右クリック→実行）" &amp; vbCrLf &amp; "　・恵庭_日次夜間バッチ（ENIWA_DAILY_NIGHT_BATCH）" &amp; vbCrLf &amp; "　・函館_日次夜間バッチ（HAKODATE_DAILY_NIGHT_BATCH）" &amp; vbCrLf &amp; "　・旭川_日次夜間バッチ（ASAHIKAWA_DAILY_NIGHT_BATCH）" &amp; vbCrLf &amp; "　・広島_日次夜間バッチ（HIROSHIMA_DAILY_NIGHT_BATCH）" &amp; vbCrLf &amp; "　・あきる野_日次夜間バッチ（AKIRUNO_DAILY_NIGHT_BATCH）" &amp; vbCrLf &amp; "２．Hinemosのジョブ[履歴]タブにて、すべてのバッチが正常終了していることを確認する。" &amp; vbCrLf &amp; "３．以下の件名のメールを受信していることを確認する。" &amp; vbCrLf &amp; "　・SSY_Night_Eniwa(情報)" &amp; vbCrLf &amp; "　・SSY_Night_Hakodate(情報)" &amp; vbCrLf &amp; "　・SSY_Night_Asahikawa(情報)" &amp; vbCrLf &amp; "　・SSY_Night_Hiroshima(情報)" &amp; vbCrLf &amp; "　・SSY_Night_Akiruno(情報)" &amp; vbCrLf &amp; "４．\\10.30.100.11\r$\MSSQL12.WADB05\MSSQL\Backup に Befor, After のDBバックアップファイルが作られていることを確認する。" &amp; vbCrLf &amp; "５．バッチログ（\\10.30.100.11\r$\harpBatch\xxxxxx\Logs）を確認し、異常が出ていないことを確認する。" &amp; vbCrLf &amp; "　　※xxxxxxは自治体名" &amp; vbCrLf &amp; "※バッチ実行後に、DBのBatchDate.datが「2018/11/28」になっていることを確認する。" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L22" s="213" t="str">
+      <c r="L22" s="212" t="str">
         <f>作業計画!N30</f>
         <v>□</v>
       </c>
-      <c r="M22" s="213" t="str">
+      <c r="M22" s="212" t="str">
         <f>作業計画!O30</f>
         <v>□</v>
       </c>
-      <c r="N22" s="213" t="str">
+      <c r="N22" s="212" t="str">
         <f>作業計画!P30</f>
         <v>□</v>
       </c>
-      <c r="O22" s="213" t="str">
+      <c r="O22" s="212" t="str">
         <f>作業計画!Q30</f>
         <v>□</v>
       </c>
-      <c r="P22" s="213" t="str">
+      <c r="P22" s="212" t="str">
         <f>作業計画!R30</f>
         <v>□</v>
       </c>
-      <c r="Q22" s="213" t="str">
+      <c r="Q22" s="212" t="str">
         <f>作業計画!S30</f>
         <v>□</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="A23" s="216">
         <f>ROW(作業計画!A31)</f>
         <v>31</v>
       </c>
-      <c r="B23" s="212">
+      <c r="B23" s="219">
         <f>作業計画!A31</f>
         <v>23</v>
       </c>
-      <c r="C23" s="212" t="str">
+      <c r="C23" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B31), _xlfn.FORMULATEXT(作業計画!B31), TEXT(作業計画!B31,"HH:MM"))</f>
         <v>=C30</v>
       </c>
-      <c r="D23" s="212" t="str">
+      <c r="D23" s="219" t="str">
         <f ca="1">TEXT(作業計画!C31,"HH:MM")</f>
         <v>23:35</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="216">
         <f>作業計画!D31</f>
         <v>10</v>
       </c>
-      <c r="F23" s="213">
-        <f>作業計画!H31</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="213">
-        <f>作業計画!I31</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="213" t="str">
-        <f>作業計画!J31</f>
+      <c r="F23" s="216" t="str">
+        <f>IF(作業計画!H31=0, F22, 作業計画!H31)</f>
+        <v>本番</v>
+      </c>
+      <c r="G23" s="216" t="str">
+        <f>IF(作業計画!I31=0, G22, 作業計画!I31)</f>
+        <v>広域</v>
+      </c>
+      <c r="H23" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J31, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>期限切れセッションデータ削除</v>
       </c>
-      <c r="I23" s="213" t="str">
+      <c r="I23" s="216" t="str">
         <f>作業計画!K31</f>
         <v>佐々木</v>
       </c>
-      <c r="J23" s="213" t="str">
+      <c r="J23" s="216" t="str">
         <f>作業計画!L31</f>
         <v>HARP</v>
       </c>
-      <c r="K23" s="217" t="str">
+      <c r="K23" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M31, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>SQL Server Management Studio から[ASPState]-[プログラミング]-[ストアドプロシージャ]-[DeleteExpiredSessions]を右クリックし、「ストアドプロシージャの実行」をクリックする。</v>
       </c>
-      <c r="L23" s="213" t="str">
+      <c r="L23" s="212" t="str">
         <f>作業計画!N31</f>
         <v>□</v>
       </c>
-      <c r="M23" s="213" t="str">
+      <c r="M23" s="212" t="str">
         <f>作業計画!O31</f>
         <v>□</v>
       </c>
-      <c r="N23" s="213" t="str">
+      <c r="N23" s="212" t="str">
         <f>作業計画!P31</f>
         <v>□</v>
       </c>
-      <c r="O23" s="213" t="str">
+      <c r="O23" s="212" t="str">
         <f>作業計画!Q31</f>
         <v>□</v>
       </c>
-      <c r="P23" s="213" t="str">
+      <c r="P23" s="212" t="str">
         <f>作業計画!R31</f>
         <v>□</v>
       </c>
-      <c r="Q23" s="213" t="str">
+      <c r="Q23" s="212" t="str">
         <f>作業計画!S31</f>
         <v>□</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="A24" s="216">
         <f>ROW(作業計画!A32)</f>
         <v>32</v>
       </c>
-      <c r="B24" s="212">
+      <c r="B24" s="219">
         <f>作業計画!A32</f>
         <v>24</v>
       </c>
-      <c r="C24" s="212" t="str">
+      <c r="C24" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B32), _xlfn.FORMULATEXT(作業計画!B32), TEXT(作業計画!B32,"HH:MM"))</f>
         <v>=C31</v>
       </c>
-      <c r="D24" s="212" t="str">
+      <c r="D24" s="219" t="str">
         <f ca="1">TEXT(作業計画!C32,"HH:MM")</f>
         <v>23:45</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="216">
         <f>作業計画!D32</f>
         <v>10</v>
       </c>
-      <c r="F24" s="213">
-        <f>作業計画!H32</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="213">
-        <f>作業計画!I32</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="213" t="str">
-        <f>作業計画!J32</f>
-        <v>【ひろしま】
-モジュール適用</v>
-      </c>
-      <c r="I24" s="213" t="str">
+      <c r="F24" s="216" t="str">
+        <f>IF(作業計画!H32=0, F23, 作業計画!H32)</f>
+        <v>本番</v>
+      </c>
+      <c r="G24" s="216" t="str">
+        <f>IF(作業計画!I32=0, G23, 作業計画!I32)</f>
+        <v>広域</v>
+      </c>
+      <c r="H24" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J32, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v>【ひろしま】" &amp; vbCrLf &amp; "モジュール適用</v>
+      </c>
+      <c r="I24" s="216" t="str">
         <f>作業計画!K32</f>
         <v>全員</v>
       </c>
-      <c r="J24" s="213" t="str">
+      <c r="J24" s="216" t="str">
         <f>作業計画!L32</f>
         <v>HARP</v>
       </c>
-      <c r="K24" s="217" t="str">
+      <c r="K24" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M32, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．広域AP(clsymulap01)に対し、以下の作業を行う。" &amp; vbCrLf &amp; "　　１－１．以下のファイルの更新日時を確認する。" &amp; vbCrLf &amp; "　　　　D:\harpWeb\ap2\kanrisha\hiroshima\Shisetsu\SstSetsubiPatternEntryInp.aspx" &amp; vbCrLf &amp; "　　　　D:\harpWeb\ap2\Service\hiroshima\bin\HARP.JV.SSY.DAC.dll" &amp; vbCrLf &amp; "　　１－２．事前作業において準備済みのリリースモジュールを以下のフォルダに対してコピーする。" &amp; vbCrLf &amp; "　　　　D:\harpWeb\ap2\kanrisha\hiroshima" &amp; vbCrLf &amp; "　　　　D:\harpWeb\ap2\Service\hiroshima" &amp; vbCrLf &amp; "　　１－３．手順１－１で確認したファイルの更新日時が更新されていることを確認する。" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L24" s="213" t="str">
+      <c r="L24" s="212" t="str">
         <f>作業計画!N32</f>
         <v>□</v>
       </c>
-      <c r="M24" s="213" t="str">
+      <c r="M24" s="212" t="str">
         <f>作業計画!O32</f>
         <v>□</v>
       </c>
-      <c r="N24" s="213" t="str">
+      <c r="N24" s="212" t="str">
         <f>作業計画!P32</f>
         <v>□</v>
       </c>
-      <c r="O24" s="213" t="str">
+      <c r="O24" s="212" t="str">
         <f>作業計画!Q32</f>
         <v>□</v>
       </c>
-      <c r="P24" s="213" t="str">
+      <c r="P24" s="212" t="str">
         <f>作業計画!R32</f>
         <v>□</v>
       </c>
-      <c r="Q24" s="213" t="str">
+      <c r="Q24" s="212" t="str">
         <f>作業計画!S32</f>
         <v>□</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="A25" s="216">
         <f>ROW(作業計画!A33)</f>
         <v>33</v>
       </c>
-      <c r="B25" s="212">
+      <c r="B25" s="219">
         <f>作業計画!A33</f>
         <v>25</v>
       </c>
-      <c r="C25" s="212" t="str">
+      <c r="C25" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B33), _xlfn.FORMULATEXT(作業計画!B33), TEXT(作業計画!B33,"HH:MM"))</f>
         <v>=C32</v>
       </c>
-      <c r="D25" s="212" t="str">
+      <c r="D25" s="219" t="str">
         <f ca="1">TEXT(作業計画!C33,"HH:MM")</f>
         <v>23:55</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="216">
         <f>作業計画!D33</f>
         <v>10</v>
       </c>
-      <c r="F25" s="213">
-        <f>作業計画!H33</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="213">
-        <f>作業計画!I33</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="213" t="str">
-        <f>作業計画!J33</f>
-        <v>【ひろしま】
-ＤＢ作業</v>
-      </c>
-      <c r="I25" s="213" t="str">
+      <c r="F25" s="216" t="str">
+        <f>IF(作業計画!H33=0, F24, 作業計画!H33)</f>
+        <v>本番</v>
+      </c>
+      <c r="G25" s="216" t="str">
+        <f>IF(作業計画!I33=0, G24, 作業計画!I33)</f>
+        <v>広域</v>
+      </c>
+      <c r="H25" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J33, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v>【ひろしま】" &amp; vbCrLf &amp; "ＤＢ作業</v>
+      </c>
+      <c r="I25" s="216" t="str">
         <f>作業計画!K33</f>
         <v>全員</v>
       </c>
-      <c r="J25" s="213" t="str">
+      <c r="J25" s="216" t="str">
         <f>作業計画!L33</f>
         <v>HARP</v>
       </c>
-      <c r="K25" s="217" t="str">
+      <c r="K25" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M33, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．SQL Server Management Studio からHARP_HIROSHIMAのDBに対し以下のクエリを実行する。" &amp; vbCrLf &amp; "　１－１．#25303_CodeMstに利用者への表示範囲区分（設備パターン）を追加.sql" &amp; vbCrLf &amp; "　１－２．#25303_設備パターンマスタにRyuDispHanniKbnカラムを追加.sql" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L25" s="213" t="str">
+      <c r="L25" s="212" t="str">
         <f>作業計画!N33</f>
         <v>□</v>
       </c>
-      <c r="M25" s="213" t="str">
+      <c r="M25" s="212" t="str">
         <f>作業計画!O33</f>
         <v>□</v>
       </c>
-      <c r="N25" s="213" t="str">
+      <c r="N25" s="212" t="str">
         <f>作業計画!P33</f>
         <v>□</v>
       </c>
-      <c r="O25" s="213" t="str">
+      <c r="O25" s="212" t="str">
         <f>作業計画!Q33</f>
         <v>□</v>
       </c>
-      <c r="P25" s="213" t="str">
+      <c r="P25" s="212" t="str">
         <f>作業計画!R33</f>
         <v>□</v>
       </c>
-      <c r="Q25" s="213" t="str">
+      <c r="Q25" s="212" t="str">
         <f>作業計画!S33</f>
         <v>□</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26">
+      <c r="A26" s="216">
         <f>ROW(作業計画!A34)</f>
         <v>34</v>
       </c>
-      <c r="B26" s="212">
+      <c r="B26" s="219">
         <f>作業計画!A34</f>
         <v>26</v>
       </c>
-      <c r="C26" s="212" t="str">
+      <c r="C26" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B34), _xlfn.FORMULATEXT(作業計画!B34), TEXT(作業計画!B34,"HH:MM"))</f>
         <v>=C33</v>
       </c>
-      <c r="D26" s="212" t="str">
+      <c r="D26" s="219" t="str">
         <f ca="1">TEXT(作業計画!C34,"HH:MM")</f>
         <v>00:05</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="216">
         <f>作業計画!D34</f>
         <v>10</v>
       </c>
-      <c r="F26" s="213">
-        <f>作業計画!H34</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="213">
-        <f>作業計画!I34</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="213" t="str">
-        <f>作業計画!J34</f>
-        <v>【ひろしま】
-ＤＢバックアップ手動取得</v>
-      </c>
-      <c r="I26" s="213" t="str">
+      <c r="F26" s="216" t="str">
+        <f>IF(作業計画!H34=0, F25, 作業計画!H34)</f>
+        <v>本番</v>
+      </c>
+      <c r="G26" s="216" t="str">
+        <f>IF(作業計画!I34=0, G25, 作業計画!I34)</f>
+        <v>広域</v>
+      </c>
+      <c r="H26" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J34, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v>【ひろしま】" &amp; vbCrLf &amp; "ＤＢバックアップ手動取得</v>
+      </c>
+      <c r="I26" s="216" t="str">
         <f>作業計画!K34</f>
         <v>全員</v>
       </c>
-      <c r="J26" s="213" t="str">
+      <c r="J26" s="216" t="str">
         <f>作業計画!L34</f>
         <v>HARP</v>
       </c>
-      <c r="K26" s="217" t="str">
+      <c r="K26" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M34, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．SQL Server Management Studio からHARPSSYDB_HIROSHIMAのバックアップを以下のディレクトリに取得する。" &amp; vbCrLf &amp; "　\\10.30.100.11\r$\計画停止\20181127" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L26" s="213" t="str">
+      <c r="L26" s="212" t="str">
         <f>作業計画!N34</f>
         <v>□</v>
       </c>
-      <c r="M26" s="213" t="str">
+      <c r="M26" s="212" t="str">
         <f>作業計画!O34</f>
         <v>□</v>
       </c>
-      <c r="N26" s="213" t="str">
+      <c r="N26" s="212" t="str">
         <f>作業計画!P34</f>
         <v>□</v>
       </c>
-      <c r="O26" s="213" t="str">
+      <c r="O26" s="212" t="str">
         <f>作業計画!Q34</f>
         <v>□</v>
       </c>
-      <c r="P26" s="213" t="str">
+      <c r="P26" s="212" t="str">
         <f>作業計画!R34</f>
         <v>□</v>
       </c>
-      <c r="Q26" s="213" t="str">
+      <c r="Q26" s="212" t="str">
         <f>作業計画!S34</f>
         <v>□</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="A27" s="216">
         <f>ROW(作業計画!A35)</f>
         <v>35</v>
       </c>
-      <c r="B27" s="212">
+      <c r="B27" s="219">
         <f>作業計画!A35</f>
         <v>27</v>
       </c>
-      <c r="C27" s="212" t="str">
+      <c r="C27" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B35), _xlfn.FORMULATEXT(作業計画!B35), TEXT(作業計画!B35,"HH:MM"))</f>
         <v>=C34</v>
       </c>
-      <c r="D27" s="212" t="str">
+      <c r="D27" s="219" t="str">
         <f ca="1">TEXT(作業計画!C35,"HH:MM")</f>
         <v>00:15</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="216">
         <f>作業計画!D35</f>
         <v>10</v>
       </c>
-      <c r="F27" s="213">
-        <f>作業計画!H35</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="213">
-        <f>作業計画!I35</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="213" t="str">
-        <f>作業計画!J35</f>
-        <v>【ひろしま】
-個人情報無効化、メールアドレス設定</v>
-      </c>
-      <c r="I27" s="213" t="str">
+      <c r="F27" s="216" t="str">
+        <f>IF(作業計画!H35=0, F26, 作業計画!H35)</f>
+        <v>本番</v>
+      </c>
+      <c r="G27" s="216" t="str">
+        <f>IF(作業計画!I35=0, G26, 作業計画!I35)</f>
+        <v>広域</v>
+      </c>
+      <c r="H27" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J35, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v>【ひろしま】" &amp; vbCrLf &amp; "個人情報無効化、メールアドレス設定</v>
+      </c>
+      <c r="I27" s="216" t="str">
         <f>作業計画!K35</f>
         <v>全員</v>
       </c>
-      <c r="J27" s="213" t="str">
+      <c r="J27" s="216" t="str">
         <f>作業計画!L35</f>
         <v>HARP</v>
       </c>
-      <c r="K27" s="217" t="str">
+      <c r="K27" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M35, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．広域DB(clsymuldb01) にリモートデスクトップでログインし、SQL Server Management Studio からHARPSSYDB_HIROSHIMAに対して、個人情報無効化クエリを実行する。" &amp; vbCrLf &amp; "２．同じく、HARPSSYDB_HIROSHIMAに対して、メールアドレス変更クエリを実行する。" &amp; vbCrLf &amp; "３．UserMstを開き、個人情報が無効化されていること、メールアドレスが「masashi.sasaki@e-harp.jp」に設定されていることを確認する。" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L27" s="213" t="str">
+      <c r="L27" s="212" t="str">
         <f>作業計画!N35</f>
         <v>□</v>
       </c>
-      <c r="M27" s="213" t="str">
+      <c r="M27" s="212" t="str">
         <f>作業計画!O35</f>
         <v>□</v>
       </c>
-      <c r="N27" s="213" t="str">
+      <c r="N27" s="212" t="str">
         <f>作業計画!P35</f>
         <v>□</v>
       </c>
-      <c r="O27" s="213" t="str">
+      <c r="O27" s="212" t="str">
         <f>作業計画!Q35</f>
         <v>□</v>
       </c>
-      <c r="P27" s="213" t="str">
+      <c r="P27" s="212" t="str">
         <f>作業計画!R35</f>
         <v>□</v>
       </c>
-      <c r="Q27" s="213" t="str">
+      <c r="Q27" s="212" t="str">
         <f>作業計画!S35</f>
         <v>□</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="A28" s="216">
         <f>ROW(作業計画!A36)</f>
         <v>36</v>
       </c>
-      <c r="B28" s="212">
+      <c r="B28" s="219">
         <f>作業計画!A36</f>
         <v>28</v>
       </c>
-      <c r="C28" s="212" t="str">
+      <c r="C28" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B36), _xlfn.FORMULATEXT(作業計画!B36), TEXT(作業計画!B36,"HH:MM"))</f>
         <v>=C35</v>
       </c>
-      <c r="D28" s="212" t="str">
+      <c r="D28" s="219" t="str">
         <f ca="1">TEXT(作業計画!C36,"HH:MM")</f>
         <v>00:45</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="216">
         <f>作業計画!D36</f>
         <v>30</v>
       </c>
-      <c r="F28" s="213">
-        <f>作業計画!H36</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="213">
-        <f>作業計画!I36</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="213" t="str">
-        <f>作業計画!J36</f>
+      <c r="F28" s="216" t="str">
+        <f>IF(作業計画!H36=0, F27, 作業計画!H36)</f>
+        <v>本番</v>
+      </c>
+      <c r="G28" s="216" t="str">
+        <f>IF(作業計画!I36=0, G27, 作業計画!I36)</f>
+        <v>広域</v>
+      </c>
+      <c r="H28" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J36, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>動作確認</v>
       </c>
-      <c r="I28" s="213" t="str">
+      <c r="I28" s="216" t="str">
         <f>作業計画!K36</f>
         <v>全員</v>
       </c>
-      <c r="J28" s="213" t="str">
+      <c r="J28" s="216" t="str">
         <f>作業計画!L36</f>
         <v>HARP</v>
       </c>
-      <c r="K28" s="217" t="str">
+      <c r="K28" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M36, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>別紙「動作確認(広域)」に従い、基本動作確認を行う。" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L28" s="213" t="str">
+      <c r="L28" s="212" t="str">
         <f>作業計画!N36</f>
         <v>□</v>
       </c>
-      <c r="M28" s="213" t="str">
+      <c r="M28" s="212" t="str">
         <f>作業計画!O36</f>
         <v>□</v>
       </c>
-      <c r="N28" s="213" t="str">
+      <c r="N28" s="212" t="str">
         <f>作業計画!P36</f>
         <v>□</v>
       </c>
-      <c r="O28" s="213" t="str">
+      <c r="O28" s="212" t="str">
         <f>作業計画!Q36</f>
         <v>□</v>
       </c>
-      <c r="P28" s="213" t="str">
+      <c r="P28" s="212" t="str">
         <f>作業計画!R36</f>
         <v>□</v>
       </c>
-      <c r="Q28" s="213" t="str">
+      <c r="Q28" s="212" t="str">
         <f>作業計画!S36</f>
         <v>□</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="A29" s="216">
         <f>ROW(作業計画!A37)</f>
         <v>37</v>
       </c>
-      <c r="B29" s="212">
+      <c r="B29" s="219">
         <f>作業計画!A37</f>
         <v>29</v>
       </c>
-      <c r="C29" s="212" t="str">
+      <c r="C29" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B37), _xlfn.FORMULATEXT(作業計画!B37), TEXT(作業計画!B37,"HH:MM"))</f>
         <v>=C36</v>
       </c>
-      <c r="D29" s="212" t="str">
+      <c r="D29" s="219" t="str">
         <f ca="1">TEXT(作業計画!C37,"HH:MM")</f>
         <v>00:55</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="216">
         <f>作業計画!D37</f>
         <v>10</v>
       </c>
-      <c r="F29" s="213">
-        <f>作業計画!H37</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="213">
-        <f>作業計画!I37</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="213" t="str">
-        <f>作業計画!J37</f>
-        <v>【ひろしま】
-ＤＢリストア　※手動取得バックアップに戻す</v>
-      </c>
-      <c r="I29" s="213" t="str">
+      <c r="F29" s="216" t="str">
+        <f>IF(作業計画!H37=0, F28, 作業計画!H37)</f>
+        <v>本番</v>
+      </c>
+      <c r="G29" s="216" t="str">
+        <f>IF(作業計画!I37=0, G28, 作業計画!I37)</f>
+        <v>広域</v>
+      </c>
+      <c r="H29" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J37, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v>【ひろしま】" &amp; vbCrLf &amp; "ＤＢリストア　※手動取得バックアップに戻す</v>
+      </c>
+      <c r="I29" s="216" t="str">
         <f>作業計画!K37</f>
         <v>全員</v>
       </c>
-      <c r="J29" s="213" t="str">
+      <c r="J29" s="216" t="str">
         <f>作業計画!L37</f>
         <v>HARP</v>
       </c>
-      <c r="K29" s="217" t="str">
+      <c r="K29" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M37, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．HARPSSYDB_HIROSHIMAに対し、夜間バッチ後に手動取得したバックアップからリストアを行う。" &amp; vbCrLf &amp; "２．リストア後、UserMstを開き、無効化していた個人情報が元に戻っていることを確認する。" &amp; vbCrLf &amp; "３．本番裏線から、DB更新がかからない程度の動作確認を行う。" &amp; vbCrLf &amp; "　・利用者側にアクセスし、空き施設検索からカレンダー画面を表示する" &amp; vbCrLf &amp; "　・管理者側でログインし、日別台帳（予約）を開く" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L29" s="213" t="str">
+      <c r="L29" s="212" t="str">
         <f>作業計画!N37</f>
         <v>□</v>
       </c>
-      <c r="M29" s="213" t="str">
+      <c r="M29" s="212" t="str">
         <f>作業計画!O37</f>
         <v>□</v>
       </c>
-      <c r="N29" s="213" t="str">
+      <c r="N29" s="212" t="str">
         <f>作業計画!P37</f>
         <v>□</v>
       </c>
-      <c r="O29" s="213" t="str">
+      <c r="O29" s="212" t="str">
         <f>作業計画!Q37</f>
         <v>□</v>
       </c>
-      <c r="P29" s="213" t="str">
+      <c r="P29" s="212" t="str">
         <f>作業計画!R37</f>
         <v>□</v>
       </c>
-      <c r="Q29" s="213" t="str">
+      <c r="Q29" s="212" t="str">
         <f>作業計画!S37</f>
         <v>□</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="54" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="A30" s="216">
         <f>ROW(作業計画!A38)</f>
         <v>38</v>
       </c>
-      <c r="B30" s="212">
+      <c r="B30" s="219">
         <f>作業計画!A38</f>
         <v>30</v>
       </c>
-      <c r="C30" s="212" t="str">
+      <c r="C30" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B38), _xlfn.FORMULATEXT(作業計画!B38), TEXT(作業計画!B38,"HH:MM"))</f>
         <v>=C37</v>
       </c>
-      <c r="D30" s="212" t="str">
+      <c r="D30" s="219" t="str">
         <f ca="1">TEXT(作業計画!C38,"HH:MM")</f>
         <v>01:05</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="216">
         <f>作業計画!D38</f>
         <v>10</v>
       </c>
-      <c r="F30" s="213">
-        <f>作業計画!H38</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="213" t="str">
-        <f>作業計画!I38</f>
+      <c r="F30" s="216" t="str">
+        <f>IF(作業計画!H38=0, F29, 作業計画!H38)</f>
+        <v>本番</v>
+      </c>
+      <c r="G30" s="216" t="str">
+        <f>IF(作業計画!I38=0, G29, 作業計画!I38)</f>
         <v>全体</v>
       </c>
-      <c r="H30" s="213" t="str">
-        <f>作業計画!J38</f>
+      <c r="H30" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J38, "
+", """ &amp; vbCrLf &amp; """)</f>
         <v>作業終了確認</v>
       </c>
-      <c r="I30" s="213" t="str">
+      <c r="I30" s="216" t="str">
         <f>作業計画!K38</f>
         <v>佐々木</v>
       </c>
-      <c r="J30" s="213" t="str">
+      <c r="J30" s="216" t="str">
         <f>作業計画!L38</f>
         <v>HARP</v>
       </c>
-      <c r="K30" s="217" t="str">
+      <c r="K30" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M38, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１．別紙「作業終了時最終確認」に従い、最終確認を行う。" &amp; vbCrLf &amp; "　・Hinemos（ジョブスケジュールは想定どおりか）" &amp; vbCrLf &amp; "　・DB（個人情報は元に戻っているか、別の自治体のものをリストアしていないか）" &amp; vbCrLf &amp; "　・音声（メンテナンスモードを解除しているか）" &amp; vbCrLf &amp; "　・試験のために変更した設定（Web.Configなど）は元に戻しているか" &amp; vbCrLf &amp; "　・AP/DBのバッチ日付は想定どおりか" &amp; vbCrLf &amp; "</v>
       </c>
-      <c r="L30" s="213" t="str">
+      <c r="L30" s="212" t="str">
         <f>作業計画!N38</f>
         <v>□</v>
       </c>
-      <c r="M30" s="213" t="str">
+      <c r="M30" s="212" t="str">
         <f>作業計画!O38</f>
         <v>□</v>
       </c>
-      <c r="N30" s="213" t="str">
+      <c r="N30" s="212" t="str">
         <f>作業計画!P38</f>
         <v>□</v>
       </c>
-      <c r="O30" s="213" t="str">
+      <c r="O30" s="212" t="str">
         <f>作業計画!Q38</f>
         <v>□</v>
       </c>
-      <c r="P30" s="213" t="str">
+      <c r="P30" s="212" t="str">
         <f>作業計画!R38</f>
         <v>□</v>
       </c>
-      <c r="Q30" s="213" t="str">
+      <c r="Q30" s="212" t="str">
         <f>作業計画!S38</f>
         <v>□</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="A31" s="216">
         <f>ROW(作業計画!A39)</f>
         <v>39</v>
       </c>
-      <c r="B31" s="212">
+      <c r="B31" s="219">
         <f>作業計画!A39</f>
         <v>31</v>
       </c>
-      <c r="C31" s="212" t="str">
+      <c r="C31" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B39), _xlfn.FORMULATEXT(作業計画!B39), TEXT(作業計画!B39,"HH:MM"))</f>
         <v>=C38</v>
       </c>
-      <c r="D31" s="212" t="str">
+      <c r="D31" s="219" t="str">
         <f ca="1">TEXT(作業計画!C39,"HH:MM")</f>
         <v>01:15</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="216">
         <f>作業計画!D39</f>
         <v>10</v>
       </c>
-      <c r="F31" s="213">
-        <f>作業計画!H39</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="213">
-        <f>作業計画!I39</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="213" t="str">
-        <f>作業計画!J39</f>
-        <v xml:space="preserve">
-スナップショット削除
-・評価ＰＤＦ２号機( cldspdfap12 ) 
-    ※ファイル名「20181127_CPU拡張前」
-・施設予約評価( clsycmnsv11 )
-・施設予約札幌ＡＰ( clsysapap01 )
-・施設予約札幌ＤＢ( clsysapdb01 )
-・本番ＰＤＦ２号機( cldspdfap02 ) 
-    ※ファイル名「20181127_CPU拡張前」
-・施設予約広域ＡＰ( clsymulap01 )
-・施設予約広域ＤＢ( clsymuldb01 )
-</v>
-      </c>
-      <c r="I31" s="213" t="str">
+      <c r="F31" s="216" t="str">
+        <f>IF(作業計画!H39=0, F30, 作業計画!H39)</f>
+        <v>本番</v>
+      </c>
+      <c r="G31" s="216" t="str">
+        <f>IF(作業計画!I39=0, G30, 作業計画!I39)</f>
+        <v>全体</v>
+      </c>
+      <c r="H31" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J39, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v>" &amp; vbCrLf &amp; "スナップショット削除" &amp; vbCrLf &amp; "・評価ＰＤＦ２号機( cldspdfap12 ) " &amp; vbCrLf &amp; "    ※ファイル名「20181127_CPU拡張前」" &amp; vbCrLf &amp; "・施設予約評価( clsycmnsv11 )" &amp; vbCrLf &amp; "・施設予約札幌ＡＰ( clsysapap01 )" &amp; vbCrLf &amp; "・施設予約札幌ＤＢ( clsysapdb01 )" &amp; vbCrLf &amp; "・本番ＰＤＦ２号機( cldspdfap02 ) " &amp; vbCrLf &amp; "    ※ファイル名「20181127_CPU拡張前」" &amp; vbCrLf &amp; "・施設予約広域ＡＰ( clsymulap01 )" &amp; vbCrLf &amp; "・施設予約広域ＤＢ( clsymuldb01 )" &amp; vbCrLf &amp; "</v>
+      </c>
+      <c r="I31" s="216" t="str">
         <f>作業計画!K39</f>
         <v>佐藤</v>
       </c>
-      <c r="J31" s="213" t="str">
+      <c r="J31" s="216" t="str">
         <f>作業計画!L39</f>
         <v>HARP</v>
       </c>
-      <c r="K31" s="217" t="str">
+      <c r="K31" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M39, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v>１. 統合管理ターミナルサーバー(10.254.255.21) にリモートデスクトップでログインする。" &amp; vbCrLf &amp; "２. ブラウザで https://10.255.255.27/vsphere-client/ にアクセスし、ID : harpuser でログインする。" &amp; vbCrLf &amp; "３. ホームより「vCenter Inventory Lists」を選択" &amp; vbCrLf &amp; "４. 左側のツリーより「Virtual Machines」を選択" &amp; vbCrLf &amp; "５. 対象のホストを選択し右クリックから「Snapshots」→「Manage snapshots..」を選択" &amp; vbCrLf &amp; "６. 削除対象のスナップショットを選択して「Delete」をクリック</v>
       </c>
-      <c r="L31" s="213" t="str">
+      <c r="L31" s="212" t="str">
         <f>作業計画!N39</f>
         <v>□</v>
       </c>
-      <c r="M31" s="213" t="str">
+      <c r="M31" s="212" t="str">
         <f>作業計画!O39</f>
         <v>□</v>
       </c>
-      <c r="N31" s="213" t="str">
+      <c r="N31" s="212" t="str">
         <f>作業計画!P39</f>
         <v>□</v>
       </c>
-      <c r="O31" s="213" t="str">
+      <c r="O31" s="212" t="str">
         <f>作業計画!Q39</f>
         <v>□</v>
       </c>
-      <c r="P31" s="213" t="str">
+      <c r="P31" s="212" t="str">
         <f>作業計画!R39</f>
         <v>□</v>
       </c>
-      <c r="Q31" s="213" t="str">
+      <c r="Q31" s="212" t="str">
         <f>作業計画!S39</f>
         <v>□</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="A32" s="216">
         <f>ROW(作業計画!A40)</f>
         <v>40</v>
       </c>
-      <c r="B32" s="212">
+      <c r="B32" s="219">
         <f>作業計画!A40</f>
         <v>0</v>
       </c>
-      <c r="C32" s="212" t="str">
+      <c r="C32" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B40), _xlfn.FORMULATEXT(作業計画!B40), TEXT(作業計画!B40,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D32" s="212" t="str">
+      <c r="D32" s="219" t="str">
         <f>TEXT(作業計画!C40,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="216">
         <f>作業計画!D40</f>
         <v>0</v>
       </c>
-      <c r="F32" s="213">
-        <f>作業計画!H40</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="213">
+      <c r="F32" s="216" t="str">
+        <f>IF(作業計画!H40=0, F31, 作業計画!H40)</f>
+        <v>本番</v>
+      </c>
+      <c r="G32" s="216">
         <f>作業計画!I40</f>
         <v>0</v>
       </c>
-      <c r="H32" s="213">
-        <f>作業計画!J40</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="213">
+      <c r="H32" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J40, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I32" s="216">
         <f>作業計画!K40</f>
         <v>0</v>
       </c>
-      <c r="J32" s="213">
+      <c r="J32" s="216">
         <f>作業計画!L40</f>
         <v>0</v>
       </c>
-      <c r="K32" s="217" t="str">
+      <c r="K32" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M40, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L32" s="213">
+      <c r="L32" s="212">
         <f>作業計画!N40</f>
         <v>0</v>
       </c>
-      <c r="M32" s="213">
+      <c r="M32" s="212">
         <f>作業計画!O40</f>
         <v>0</v>
       </c>
-      <c r="N32" s="213">
+      <c r="N32" s="212">
         <f>作業計画!P40</f>
         <v>0</v>
       </c>
-      <c r="O32" s="213">
+      <c r="O32" s="212">
         <f>作業計画!Q40</f>
         <v>0</v>
       </c>
-      <c r="P32" s="213">
+      <c r="P32" s="212">
         <f>作業計画!R40</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="213">
+      <c r="Q32" s="212">
         <f>作業計画!S40</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="A33" s="216">
         <f>ROW(作業計画!A41)</f>
         <v>41</v>
       </c>
-      <c r="B33" s="212">
+      <c r="B33" s="219">
         <f>作業計画!A41</f>
         <v>0</v>
       </c>
-      <c r="C33" s="212" t="str">
+      <c r="C33" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B41), _xlfn.FORMULATEXT(作業計画!B41), TEXT(作業計画!B41,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D33" s="212" t="str">
+      <c r="D33" s="219" t="str">
         <f>TEXT(作業計画!C41,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="216">
         <f>作業計画!D41</f>
         <v>0</v>
       </c>
-      <c r="F33" s="213">
-        <f>作業計画!H41</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="213">
+      <c r="F33" s="216" t="str">
+        <f>IF(作業計画!H41=0, F32, 作業計画!H41)</f>
+        <v>本番</v>
+      </c>
+      <c r="G33" s="216">
         <f>作業計画!I41</f>
         <v>0</v>
       </c>
-      <c r="H33" s="213">
-        <f>作業計画!J41</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="213">
+      <c r="H33" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J41, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I33" s="216">
         <f>作業計画!K41</f>
         <v>0</v>
       </c>
-      <c r="J33" s="213">
+      <c r="J33" s="216">
         <f>作業計画!L41</f>
         <v>0</v>
       </c>
-      <c r="K33" s="217" t="str">
+      <c r="K33" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M41, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L33" s="213">
+      <c r="L33" s="212">
         <f>作業計画!N41</f>
         <v>0</v>
       </c>
-      <c r="M33" s="213">
+      <c r="M33" s="212">
         <f>作業計画!O41</f>
         <v>0</v>
       </c>
-      <c r="N33" s="213">
+      <c r="N33" s="212">
         <f>作業計画!P41</f>
         <v>0</v>
       </c>
-      <c r="O33" s="213">
+      <c r="O33" s="212">
         <f>作業計画!Q41</f>
         <v>0</v>
       </c>
-      <c r="P33" s="213">
+      <c r="P33" s="212">
         <f>作業計画!R41</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="213">
+      <c r="Q33" s="212">
         <f>作業計画!S41</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="A34" s="216">
         <f>ROW(作業計画!A42)</f>
         <v>42</v>
       </c>
-      <c r="B34" s="212">
+      <c r="B34" s="219">
         <f>作業計画!A42</f>
         <v>0</v>
       </c>
-      <c r="C34" s="212" t="str">
+      <c r="C34" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B42), _xlfn.FORMULATEXT(作業計画!B42), TEXT(作業計画!B42,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D34" s="212" t="str">
+      <c r="D34" s="219" t="str">
         <f>TEXT(作業計画!C42,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="216">
         <f>作業計画!D42</f>
         <v>0</v>
       </c>
-      <c r="F34" s="213">
-        <f>作業計画!H42</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="213">
+      <c r="F34" s="216" t="str">
+        <f>IF(作業計画!H42=0, F33, 作業計画!H42)</f>
+        <v>本番</v>
+      </c>
+      <c r="G34" s="216">
         <f>作業計画!I42</f>
         <v>0</v>
       </c>
-      <c r="H34" s="213">
-        <f>作業計画!J42</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="213">
+      <c r="H34" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J42, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I34" s="216">
         <f>作業計画!K42</f>
         <v>0</v>
       </c>
-      <c r="J34" s="213">
+      <c r="J34" s="216">
         <f>作業計画!L42</f>
         <v>0</v>
       </c>
-      <c r="K34" s="217" t="str">
+      <c r="K34" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M42, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L34" s="213">
+      <c r="L34" s="212">
         <f>作業計画!N42</f>
         <v>0</v>
       </c>
-      <c r="M34" s="213">
+      <c r="M34" s="212">
         <f>作業計画!O42</f>
         <v>0</v>
       </c>
-      <c r="N34" s="213">
+      <c r="N34" s="212">
         <f>作業計画!P42</f>
         <v>0</v>
       </c>
-      <c r="O34" s="213">
+      <c r="O34" s="212">
         <f>作業計画!Q42</f>
         <v>0</v>
       </c>
-      <c r="P34" s="213">
+      <c r="P34" s="212">
         <f>作業計画!R42</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="213">
+      <c r="Q34" s="212">
         <f>作業計画!S42</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="A35" s="216">
         <f>ROW(作業計画!A43)</f>
         <v>43</v>
       </c>
-      <c r="B35" s="212">
+      <c r="B35" s="219">
         <f>作業計画!A43</f>
         <v>0</v>
       </c>
-      <c r="C35" s="212" t="str">
+      <c r="C35" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B43), _xlfn.FORMULATEXT(作業計画!B43), TEXT(作業計画!B43,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D35" s="212" t="str">
+      <c r="D35" s="219" t="str">
         <f>TEXT(作業計画!C43,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="216">
         <f>作業計画!D43</f>
         <v>0</v>
       </c>
-      <c r="F35" s="213">
-        <f>作業計画!H43</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="213">
+      <c r="F35" s="216" t="str">
+        <f>IF(作業計画!H43=0, F34, 作業計画!H43)</f>
+        <v>本番</v>
+      </c>
+      <c r="G35" s="216">
         <f>作業計画!I43</f>
         <v>0</v>
       </c>
-      <c r="H35" s="213">
-        <f>作業計画!J43</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="213">
+      <c r="H35" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J43, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I35" s="216">
         <f>作業計画!K43</f>
         <v>0</v>
       </c>
-      <c r="J35" s="213">
+      <c r="J35" s="216">
         <f>作業計画!L43</f>
         <v>0</v>
       </c>
-      <c r="K35" s="217" t="str">
+      <c r="K35" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M43, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L35" s="213">
+      <c r="L35" s="212">
         <f>作業計画!N43</f>
         <v>0</v>
       </c>
-      <c r="M35" s="213">
+      <c r="M35" s="212">
         <f>作業計画!O43</f>
         <v>0</v>
       </c>
-      <c r="N35" s="213">
+      <c r="N35" s="212">
         <f>作業計画!P43</f>
         <v>0</v>
       </c>
-      <c r="O35" s="213">
+      <c r="O35" s="212">
         <f>作業計画!Q43</f>
         <v>0</v>
       </c>
-      <c r="P35" s="213">
+      <c r="P35" s="212">
         <f>作業計画!R43</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="213">
+      <c r="Q35" s="212">
         <f>作業計画!S43</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A36">
+      <c r="A36" s="216">
         <f>ROW(作業計画!A44)</f>
         <v>44</v>
       </c>
-      <c r="B36" s="212">
+      <c r="B36" s="219">
         <f>作業計画!A44</f>
         <v>0</v>
       </c>
-      <c r="C36" s="212" t="str">
+      <c r="C36" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B44), _xlfn.FORMULATEXT(作業計画!B44), TEXT(作業計画!B44,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D36" s="212" t="str">
+      <c r="D36" s="219" t="str">
         <f>TEXT(作業計画!C44,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="216">
         <f>作業計画!D44</f>
         <v>0</v>
       </c>
-      <c r="F36" s="213">
-        <f>作業計画!H44</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="213">
+      <c r="F36" s="216" t="str">
+        <f>IF(作業計画!H44=0, F35, 作業計画!H44)</f>
+        <v>本番</v>
+      </c>
+      <c r="G36" s="216">
         <f>作業計画!I44</f>
         <v>0</v>
       </c>
-      <c r="H36" s="213">
-        <f>作業計画!J44</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="213">
+      <c r="H36" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J44, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I36" s="216">
         <f>作業計画!K44</f>
         <v>0</v>
       </c>
-      <c r="J36" s="213">
+      <c r="J36" s="216">
         <f>作業計画!L44</f>
         <v>0</v>
       </c>
-      <c r="K36" s="217" t="str">
+      <c r="K36" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M44, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L36" s="213">
+      <c r="L36" s="212">
         <f>作業計画!N44</f>
         <v>0</v>
       </c>
-      <c r="M36" s="213">
+      <c r="M36" s="212">
         <f>作業計画!O44</f>
         <v>0</v>
       </c>
-      <c r="N36" s="213">
+      <c r="N36" s="212">
         <f>作業計画!P44</f>
         <v>0</v>
       </c>
-      <c r="O36" s="213">
+      <c r="O36" s="212">
         <f>作業計画!Q44</f>
         <v>0</v>
       </c>
-      <c r="P36" s="213">
+      <c r="P36" s="212">
         <f>作業計画!R44</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="213">
+      <c r="Q36" s="212">
         <f>作業計画!S44</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="A37" s="216">
         <f>ROW(作業計画!A45)</f>
         <v>45</v>
       </c>
-      <c r="B37" s="212">
+      <c r="B37" s="219">
         <f>作業計画!A45</f>
         <v>0</v>
       </c>
-      <c r="C37" s="212" t="str">
+      <c r="C37" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B45), _xlfn.FORMULATEXT(作業計画!B45), TEXT(作業計画!B45,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D37" s="212" t="str">
+      <c r="D37" s="219" t="str">
         <f>TEXT(作業計画!C45,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="216">
         <f>作業計画!D45</f>
         <v>0</v>
       </c>
-      <c r="F37" s="213">
-        <f>作業計画!H45</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="213">
+      <c r="F37" s="216" t="str">
+        <f>IF(作業計画!H45=0, F36, 作業計画!H45)</f>
+        <v>本番</v>
+      </c>
+      <c r="G37" s="216">
         <f>作業計画!I45</f>
         <v>0</v>
       </c>
-      <c r="H37" s="213">
-        <f>作業計画!J45</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="213">
+      <c r="H37" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J45, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I37" s="216">
         <f>作業計画!K45</f>
         <v>0</v>
       </c>
-      <c r="J37" s="213">
+      <c r="J37" s="216">
         <f>作業計画!L45</f>
         <v>0</v>
       </c>
-      <c r="K37" s="217" t="str">
+      <c r="K37" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M45, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L37" s="213">
+      <c r="L37" s="212">
         <f>作業計画!N45</f>
         <v>0</v>
       </c>
-      <c r="M37" s="213">
+      <c r="M37" s="212">
         <f>作業計画!O45</f>
         <v>0</v>
       </c>
-      <c r="N37" s="213">
+      <c r="N37" s="212">
         <f>作業計画!P45</f>
         <v>0</v>
       </c>
-      <c r="O37" s="213">
+      <c r="O37" s="212">
         <f>作業計画!Q45</f>
         <v>0</v>
       </c>
-      <c r="P37" s="213">
+      <c r="P37" s="212">
         <f>作業計画!R45</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="213">
+      <c r="Q37" s="212">
         <f>作業計画!S45</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A38">
+      <c r="A38" s="216">
         <f>ROW(作業計画!A46)</f>
         <v>46</v>
       </c>
-      <c r="B38" s="212">
+      <c r="B38" s="219">
         <f>作業計画!A46</f>
         <v>0</v>
       </c>
-      <c r="C38" s="212" t="str">
+      <c r="C38" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B46), _xlfn.FORMULATEXT(作業計画!B46), TEXT(作業計画!B46,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D38" s="212" t="str">
+      <c r="D38" s="219" t="str">
         <f>TEXT(作業計画!C46,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="216">
         <f>作業計画!D46</f>
         <v>0</v>
       </c>
-      <c r="F38" s="213">
-        <f>作業計画!H46</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="213">
+      <c r="F38" s="216" t="str">
+        <f>IF(作業計画!H46=0, F37, 作業計画!H46)</f>
+        <v>本番</v>
+      </c>
+      <c r="G38" s="216">
         <f>作業計画!I46</f>
         <v>0</v>
       </c>
-      <c r="H38" s="213">
-        <f>作業計画!J46</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="213">
+      <c r="H38" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J46, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I38" s="216">
         <f>作業計画!K46</f>
         <v>0</v>
       </c>
-      <c r="J38" s="213">
+      <c r="J38" s="216">
         <f>作業計画!L46</f>
         <v>0</v>
       </c>
-      <c r="K38" s="217" t="str">
+      <c r="K38" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M46, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L38" s="213">
+      <c r="L38" s="212">
         <f>作業計画!N46</f>
         <v>0</v>
       </c>
-      <c r="M38" s="213">
+      <c r="M38" s="212">
         <f>作業計画!O46</f>
         <v>0</v>
       </c>
-      <c r="N38" s="213">
+      <c r="N38" s="212">
         <f>作業計画!P46</f>
         <v>0</v>
       </c>
-      <c r="O38" s="213">
+      <c r="O38" s="212">
         <f>作業計画!Q46</f>
         <v>0</v>
       </c>
-      <c r="P38" s="213">
+      <c r="P38" s="212">
         <f>作業計画!R46</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="213">
+      <c r="Q38" s="212">
         <f>作業計画!S46</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A39">
+      <c r="A39" s="216">
         <f>ROW(作業計画!A47)</f>
         <v>47</v>
       </c>
-      <c r="B39" s="212">
+      <c r="B39" s="219">
         <f>作業計画!A47</f>
         <v>0</v>
       </c>
-      <c r="C39" s="212" t="str">
+      <c r="C39" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B47), _xlfn.FORMULATEXT(作業計画!B47), TEXT(作業計画!B47,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D39" s="212" t="str">
+      <c r="D39" s="219" t="str">
         <f>TEXT(作業計画!C47,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="216">
         <f>作業計画!D47</f>
         <v>0</v>
       </c>
-      <c r="F39" s="213">
-        <f>作業計画!H47</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="213">
+      <c r="F39" s="216" t="str">
+        <f>IF(作業計画!H47=0, F38, 作業計画!H47)</f>
+        <v>本番</v>
+      </c>
+      <c r="G39" s="216">
         <f>作業計画!I47</f>
         <v>0</v>
       </c>
-      <c r="H39" s="213">
-        <f>作業計画!J47</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="213">
+      <c r="H39" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J47, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I39" s="216">
         <f>作業計画!K47</f>
         <v>0</v>
       </c>
-      <c r="J39" s="213">
+      <c r="J39" s="216">
         <f>作業計画!L47</f>
         <v>0</v>
       </c>
-      <c r="K39" s="217" t="str">
+      <c r="K39" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M47, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L39" s="213">
+      <c r="L39" s="212">
         <f>作業計画!N47</f>
         <v>0</v>
       </c>
-      <c r="M39" s="213">
+      <c r="M39" s="212">
         <f>作業計画!O47</f>
         <v>0</v>
       </c>
-      <c r="N39" s="213">
+      <c r="N39" s="212">
         <f>作業計画!P47</f>
         <v>0</v>
       </c>
-      <c r="O39" s="213">
+      <c r="O39" s="212">
         <f>作業計画!Q47</f>
         <v>0</v>
       </c>
-      <c r="P39" s="213">
+      <c r="P39" s="212">
         <f>作業計画!R47</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="213">
+      <c r="Q39" s="212">
         <f>作業計画!S47</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A40">
+      <c r="A40" s="216">
         <f>ROW(作業計画!A48)</f>
         <v>48</v>
       </c>
-      <c r="B40" s="212">
+      <c r="B40" s="219">
         <f>作業計画!A48</f>
         <v>0</v>
       </c>
-      <c r="C40" s="212" t="str">
+      <c r="C40" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B48), _xlfn.FORMULATEXT(作業計画!B48), TEXT(作業計画!B48,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D40" s="212" t="str">
+      <c r="D40" s="219" t="str">
         <f>TEXT(作業計画!C48,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="216">
         <f>作業計画!D48</f>
         <v>0</v>
       </c>
-      <c r="F40" s="213">
-        <f>作業計画!H48</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="213">
+      <c r="F40" s="216" t="str">
+        <f>IF(作業計画!H48=0, F39, 作業計画!H48)</f>
+        <v>本番</v>
+      </c>
+      <c r="G40" s="216">
         <f>作業計画!I48</f>
         <v>0</v>
       </c>
-      <c r="H40" s="213">
-        <f>作業計画!J48</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="213">
+      <c r="H40" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J48, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I40" s="216">
         <f>作業計画!K48</f>
         <v>0</v>
       </c>
-      <c r="J40" s="213">
+      <c r="J40" s="216">
         <f>作業計画!L48</f>
         <v>0</v>
       </c>
-      <c r="K40" s="217" t="str">
+      <c r="K40" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M48, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L40" s="213">
+      <c r="L40" s="212">
         <f>作業計画!N48</f>
         <v>0</v>
       </c>
-      <c r="M40" s="213">
+      <c r="M40" s="212">
         <f>作業計画!O48</f>
         <v>0</v>
       </c>
-      <c r="N40" s="213">
+      <c r="N40" s="212">
         <f>作業計画!P48</f>
         <v>0</v>
       </c>
-      <c r="O40" s="213">
+      <c r="O40" s="212">
         <f>作業計画!Q48</f>
         <v>0</v>
       </c>
-      <c r="P40" s="213">
+      <c r="P40" s="212">
         <f>作業計画!R48</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="213">
+      <c r="Q40" s="212">
         <f>作業計画!S48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="41" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="216">
         <f>ROW(作業計画!A49)</f>
         <v>49</v>
       </c>
-      <c r="B41" s="212">
+      <c r="B41" s="219">
         <f>作業計画!A49</f>
         <v>0</v>
       </c>
-      <c r="C41" s="212" t="str">
+      <c r="C41" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B49), _xlfn.FORMULATEXT(作業計画!B49), TEXT(作業計画!B49,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D41" s="212" t="str">
+      <c r="D41" s="219" t="str">
         <f>TEXT(作業計画!C49,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="216">
         <f>作業計画!D49</f>
         <v>0</v>
       </c>
-      <c r="F41" s="213">
-        <f>作業計画!H49</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="213">
+      <c r="F41" s="216" t="str">
+        <f>IF(作業計画!H49=0, F40, 作業計画!H49)</f>
+        <v>本番</v>
+      </c>
+      <c r="G41" s="216">
         <f>作業計画!I49</f>
         <v>0</v>
       </c>
-      <c r="H41" s="213">
-        <f>作業計画!J49</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="213">
+      <c r="H41" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J49, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I41" s="216">
         <f>作業計画!K49</f>
         <v>0</v>
       </c>
-      <c r="J41" s="213">
+      <c r="J41" s="216">
         <f>作業計画!L49</f>
         <v>0</v>
       </c>
-      <c r="K41" s="217" t="str">
+      <c r="K41" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M49, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L41" s="213">
+      <c r="L41" s="212">
         <f>作業計画!N49</f>
         <v>0</v>
       </c>
-      <c r="M41" s="213">
+      <c r="M41" s="212">
         <f>作業計画!O49</f>
         <v>0</v>
       </c>
-      <c r="N41" s="213">
+      <c r="N41" s="212">
         <f>作業計画!P49</f>
         <v>0</v>
       </c>
-      <c r="O41" s="213">
+      <c r="O41" s="212">
         <f>作業計画!Q49</f>
         <v>0</v>
       </c>
-      <c r="P41" s="213">
+      <c r="P41" s="212">
         <f>作業計画!R49</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="213">
+      <c r="Q41" s="212">
         <f>作業計画!S49</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A42">
+      <c r="A42" s="216">
         <f>ROW(作業計画!A50)</f>
         <v>50</v>
       </c>
-      <c r="B42" s="212">
+      <c r="B42" s="219">
         <f>作業計画!A50</f>
         <v>0</v>
       </c>
-      <c r="C42" s="212" t="str">
+      <c r="C42" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B50), _xlfn.FORMULATEXT(作業計画!B50), TEXT(作業計画!B50,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D42" s="212" t="str">
+      <c r="D42" s="219" t="str">
         <f>TEXT(作業計画!C50,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="216">
         <f>作業計画!D50</f>
         <v>0</v>
       </c>
-      <c r="F42" s="213">
-        <f>作業計画!H50</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="213">
+      <c r="F42" s="216" t="str">
+        <f>IF(作業計画!H50=0, F41, 作業計画!H50)</f>
+        <v>本番</v>
+      </c>
+      <c r="G42" s="216">
         <f>作業計画!I50</f>
         <v>0</v>
       </c>
-      <c r="H42" s="213">
-        <f>作業計画!J50</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="213">
+      <c r="H42" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J50, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I42" s="216">
         <f>作業計画!K50</f>
         <v>0</v>
       </c>
-      <c r="J42" s="213">
+      <c r="J42" s="216">
         <f>作業計画!L50</f>
         <v>0</v>
       </c>
-      <c r="K42" s="217" t="str">
+      <c r="K42" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M50, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L42" s="213">
+      <c r="L42" s="212">
         <f>作業計画!N50</f>
         <v>0</v>
       </c>
-      <c r="M42" s="213">
+      <c r="M42" s="212">
         <f>作業計画!O50</f>
         <v>0</v>
       </c>
-      <c r="N42" s="213">
+      <c r="N42" s="212">
         <f>作業計画!P50</f>
         <v>0</v>
       </c>
-      <c r="O42" s="213">
+      <c r="O42" s="212">
         <f>作業計画!Q50</f>
         <v>0</v>
       </c>
-      <c r="P42" s="213">
+      <c r="P42" s="212">
         <f>作業計画!R50</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="213">
+      <c r="Q42" s="212">
         <f>作業計画!S50</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A43">
+      <c r="A43" s="216">
         <f>ROW(作業計画!A51)</f>
         <v>51</v>
       </c>
-      <c r="B43" s="212">
+      <c r="B43" s="219">
         <f>作業計画!A51</f>
         <v>0</v>
       </c>
-      <c r="C43" s="212" t="str">
+      <c r="C43" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B51), _xlfn.FORMULATEXT(作業計画!B51), TEXT(作業計画!B51,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D43" s="212" t="str">
+      <c r="D43" s="219" t="str">
         <f>TEXT(作業計画!C51,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="216">
         <f>作業計画!D51</f>
         <v>0</v>
       </c>
-      <c r="F43" s="213">
-        <f>作業計画!H51</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="213">
+      <c r="F43" s="216" t="str">
+        <f>IF(作業計画!H51=0, F42, 作業計画!H51)</f>
+        <v>本番</v>
+      </c>
+      <c r="G43" s="216">
         <f>作業計画!I51</f>
         <v>0</v>
       </c>
-      <c r="H43" s="213">
-        <f>作業計画!J51</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="213">
+      <c r="H43" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J51, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I43" s="216">
         <f>作業計画!K51</f>
         <v>0</v>
       </c>
-      <c r="J43" s="213">
+      <c r="J43" s="216">
         <f>作業計画!L51</f>
         <v>0</v>
       </c>
-      <c r="K43" s="217" t="str">
+      <c r="K43" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M51, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L43" s="213">
+      <c r="L43" s="212">
         <f>作業計画!N51</f>
         <v>0</v>
       </c>
-      <c r="M43" s="213">
+      <c r="M43" s="212">
         <f>作業計画!O51</f>
         <v>0</v>
       </c>
-      <c r="N43" s="213">
+      <c r="N43" s="212">
         <f>作業計画!P51</f>
         <v>0</v>
       </c>
-      <c r="O43" s="213">
+      <c r="O43" s="212">
         <f>作業計画!Q51</f>
         <v>0</v>
       </c>
-      <c r="P43" s="213">
+      <c r="P43" s="212">
         <f>作業計画!R51</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="213">
+      <c r="Q43" s="212">
         <f>作業計画!S51</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A44">
+      <c r="A44" s="216">
         <f>ROW(作業計画!A52)</f>
         <v>52</v>
       </c>
-      <c r="B44" s="212">
+      <c r="B44" s="219">
         <f>作業計画!A52</f>
         <v>0</v>
       </c>
-      <c r="C44" s="212" t="str">
+      <c r="C44" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B52), _xlfn.FORMULATEXT(作業計画!B52), TEXT(作業計画!B52,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D44" s="212" t="str">
+      <c r="D44" s="219" t="str">
         <f>TEXT(作業計画!C52,"HH:MM")</f>
         <v>00:00</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="216">
         <f>作業計画!D52</f>
         <v>0</v>
       </c>
-      <c r="F44" s="213">
-        <f>作業計画!H52</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="213">
+      <c r="F44" s="216" t="str">
+        <f>IF(作業計画!H52=0, F43, 作業計画!H52)</f>
+        <v>本番</v>
+      </c>
+      <c r="G44" s="216">
         <f>作業計画!I52</f>
         <v>0</v>
       </c>
-      <c r="H44" s="213">
-        <f>作業計画!J52</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="213">
+      <c r="H44" s="215" t="str">
+        <f>SUBSTITUTE(作業計画!J52, "
+", """ &amp; vbCrLf &amp; """)</f>
+        <v/>
+      </c>
+      <c r="I44" s="216">
         <f>作業計画!K52</f>
         <v>0</v>
       </c>
-      <c r="J44" s="213">
+      <c r="J44" s="216">
         <f>作業計画!L52</f>
         <v>0</v>
       </c>
-      <c r="K44" s="217" t="str">
+      <c r="K44" s="215" t="str">
         <f>SUBSTITUTE(作業計画!M52, "
 ", """ &amp; vbCrLf &amp; """)</f>
         <v/>
       </c>
-      <c r="L44" s="213">
+      <c r="L44" s="212">
         <f>作業計画!N52</f>
         <v>0</v>
       </c>
-      <c r="M44" s="213">
+      <c r="M44" s="212">
         <f>作業計画!O52</f>
         <v>0</v>
       </c>
-      <c r="N44" s="213">
+      <c r="N44" s="212">
         <f>作業計画!P52</f>
         <v>0</v>
       </c>
-      <c r="O44" s="213">
+      <c r="O44" s="212">
         <f>作業計画!Q52</f>
         <v>0</v>
       </c>
-      <c r="P44" s="213">
+      <c r="P44" s="212">
         <f>作業計画!R52</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="213">
+      <c r="Q44" s="212">
         <f>作業計画!S52</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A45">
+      <c r="A45" s="216">
         <f>ROW(作業計画!A53)</f>
         <v>53</v>
       </c>
-      <c r="B45" s="212">
-        <v>0</v>
-      </c>
-      <c r="C45" s="212" t="str">
+      <c r="B45" s="219">
+        <v>0</v>
+      </c>
+      <c r="C45" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B53), _xlfn.FORMULATEXT(作業計画!B53), TEXT(作業計画!B53,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D45" s="212" t="str">
+      <c r="D45" s="219" t="str">
         <f>TEXT(作業計画!C53,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A46">
+      <c r="A46" s="216">
         <f>ROW(作業計画!A54)</f>
         <v>54</v>
       </c>
-      <c r="B46" s="212">
-        <v>0</v>
-      </c>
-      <c r="C46" s="212" t="str">
+      <c r="B46" s="219">
+        <v>0</v>
+      </c>
+      <c r="C46" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B54), _xlfn.FORMULATEXT(作業計画!B54), TEXT(作業計画!B54,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D46" s="212" t="str">
+      <c r="D46" s="219" t="str">
         <f>TEXT(作業計画!C54,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A47">
+      <c r="A47" s="216">
         <f>ROW(作業計画!A55)</f>
         <v>55</v>
       </c>
-      <c r="B47" s="212">
-        <v>0</v>
-      </c>
-      <c r="C47" s="212" t="str">
+      <c r="B47" s="219">
+        <v>0</v>
+      </c>
+      <c r="C47" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B55), _xlfn.FORMULATEXT(作業計画!B55), TEXT(作業計画!B55,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D47" s="212" t="str">
+      <c r="D47" s="219" t="str">
         <f>TEXT(作業計画!C55,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A48">
+      <c r="A48" s="216">
         <f>ROW(作業計画!A56)</f>
         <v>56</v>
       </c>
-      <c r="B48" s="212">
-        <v>0</v>
-      </c>
-      <c r="C48" s="212" t="str">
+      <c r="B48" s="219">
+        <v>0</v>
+      </c>
+      <c r="C48" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B56), _xlfn.FORMULATEXT(作業計画!B56), TEXT(作業計画!B56,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D48" s="212" t="str">
+      <c r="D48" s="219" t="str">
         <f>TEXT(作業計画!C56,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A49">
+      <c r="A49" s="216">
         <f>ROW(作業計画!A57)</f>
         <v>57</v>
       </c>
-      <c r="B49" s="212">
-        <v>0</v>
-      </c>
-      <c r="C49" s="212" t="str">
+      <c r="B49" s="219">
+        <v>0</v>
+      </c>
+      <c r="C49" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B57), _xlfn.FORMULATEXT(作業計画!B57), TEXT(作業計画!B57,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D49" s="212" t="str">
+      <c r="D49" s="219" t="str">
         <f>TEXT(作業計画!C57,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A50">
+      <c r="A50" s="216">
         <f>ROW(作業計画!A58)</f>
         <v>58</v>
       </c>
-      <c r="B50" s="212">
-        <v>0</v>
-      </c>
-      <c r="C50" s="212" t="str">
+      <c r="B50" s="219">
+        <v>0</v>
+      </c>
+      <c r="C50" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B58), _xlfn.FORMULATEXT(作業計画!B58), TEXT(作業計画!B58,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D50" s="212" t="str">
+      <c r="D50" s="219" t="str">
         <f>TEXT(作業計画!C58,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A51">
+      <c r="A51" s="216">
         <f>ROW(作業計画!A59)</f>
         <v>59</v>
       </c>
-      <c r="B51" s="212">
-        <v>0</v>
-      </c>
-      <c r="C51" s="212" t="str">
+      <c r="B51" s="219">
+        <v>0</v>
+      </c>
+      <c r="C51" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B59), _xlfn.FORMULATEXT(作業計画!B59), TEXT(作業計画!B59,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D51" s="212" t="str">
+      <c r="D51" s="219" t="str">
         <f>TEXT(作業計画!C59,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A52">
+      <c r="A52" s="216">
         <f>ROW(作業計画!A60)</f>
         <v>60</v>
       </c>
-      <c r="B52" s="212">
-        <v>0</v>
-      </c>
-      <c r="C52" s="212" t="str">
+      <c r="B52" s="219">
+        <v>0</v>
+      </c>
+      <c r="C52" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B60), _xlfn.FORMULATEXT(作業計画!B60), TEXT(作業計画!B60,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D52" s="212" t="str">
+      <c r="D52" s="219" t="str">
         <f>TEXT(作業計画!C60,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53">
+      <c r="A53" s="216">
         <f>ROW(作業計画!A61)</f>
         <v>61</v>
       </c>
-      <c r="B53" s="212">
-        <v>0</v>
-      </c>
-      <c r="C53" s="212" t="str">
+      <c r="B53" s="219">
+        <v>0</v>
+      </c>
+      <c r="C53" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B61), _xlfn.FORMULATEXT(作業計画!B61), TEXT(作業計画!B61,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D53" s="212" t="str">
+      <c r="D53" s="219" t="str">
         <f>TEXT(作業計画!C61,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A54">
+      <c r="A54" s="216">
         <f>ROW(作業計画!A62)</f>
         <v>62</v>
       </c>
-      <c r="B54" s="212">
-        <v>0</v>
-      </c>
-      <c r="C54" s="212" t="str">
+      <c r="B54" s="219">
+        <v>0</v>
+      </c>
+      <c r="C54" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B62), _xlfn.FORMULATEXT(作業計画!B62), TEXT(作業計画!B62,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D54" s="212" t="str">
+      <c r="D54" s="219" t="str">
         <f>TEXT(作業計画!C62,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A55">
+      <c r="A55" s="216">
         <f>ROW(作業計画!A63)</f>
         <v>63</v>
       </c>
-      <c r="B55" s="212">
-        <v>0</v>
-      </c>
-      <c r="C55" s="212" t="str">
+      <c r="B55" s="219">
+        <v>0</v>
+      </c>
+      <c r="C55" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B63), _xlfn.FORMULATEXT(作業計画!B63), TEXT(作業計画!B63,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D55" s="212" t="str">
+      <c r="D55" s="219" t="str">
         <f>TEXT(作業計画!C63,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A56">
+      <c r="A56" s="216">
         <f>ROW(作業計画!A64)</f>
         <v>64</v>
       </c>
-      <c r="B56" s="212">
-        <v>0</v>
-      </c>
-      <c r="C56" s="212" t="str">
+      <c r="B56" s="219">
+        <v>0</v>
+      </c>
+      <c r="C56" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B64), _xlfn.FORMULATEXT(作業計画!B64), TEXT(作業計画!B64,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D56" s="212" t="str">
+      <c r="D56" s="219" t="str">
         <f>TEXT(作業計画!C64,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A57">
+      <c r="A57" s="216">
         <f>ROW(作業計画!A65)</f>
         <v>65</v>
       </c>
-      <c r="B57" s="212">
-        <v>0</v>
-      </c>
-      <c r="C57" s="212" t="str">
+      <c r="B57" s="219">
+        <v>0</v>
+      </c>
+      <c r="C57" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B65), _xlfn.FORMULATEXT(作業計画!B65), TEXT(作業計画!B65,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D57" s="212" t="str">
+      <c r="D57" s="219" t="str">
         <f>TEXT(作業計画!C65,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A58">
+      <c r="A58" s="216">
         <f>ROW(作業計画!A66)</f>
         <v>66</v>
       </c>
-      <c r="B58" s="212">
-        <v>0</v>
-      </c>
-      <c r="C58" s="212" t="str">
+      <c r="B58" s="219">
+        <v>0</v>
+      </c>
+      <c r="C58" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B66), _xlfn.FORMULATEXT(作業計画!B66), TEXT(作業計画!B66,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D58" s="212" t="str">
+      <c r="D58" s="219" t="str">
         <f>TEXT(作業計画!C66,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A59">
+      <c r="A59" s="216">
         <f>ROW(作業計画!A67)</f>
         <v>67</v>
       </c>
-      <c r="B59" s="212">
-        <v>0</v>
-      </c>
-      <c r="C59" s="212" t="str">
+      <c r="B59" s="219">
+        <v>0</v>
+      </c>
+      <c r="C59" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B67), _xlfn.FORMULATEXT(作業計画!B67), TEXT(作業計画!B67,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D59" s="212" t="str">
+      <c r="D59" s="219" t="str">
         <f>TEXT(作業計画!C67,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A60">
+      <c r="A60" s="216">
         <f>ROW(作業計画!A68)</f>
         <v>68</v>
       </c>
-      <c r="B60" s="212">
-        <v>0</v>
-      </c>
-      <c r="C60" s="212" t="str">
+      <c r="B60" s="219">
+        <v>0</v>
+      </c>
+      <c r="C60" s="219" t="str">
         <f ca="1">IF(_xlfn.ISFORMULA(作業計画!B68), _xlfn.FORMULATEXT(作業計画!B68), TEXT(作業計画!B68,"HH:MM"))</f>
         <v>00:00</v>
       </c>
-      <c r="D60" s="212" t="str">
+      <c r="D60" s="219" t="str">
         <f>TEXT(作業計画!C68,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A61">
+      <c r="A61" s="216">
         <f>ROW(作業計画!A69)</f>
         <v>69</v>
       </c>
-      <c r="B61" s="212">
-        <v>0</v>
-      </c>
-      <c r="D61" s="212" t="str">
+      <c r="B61" s="219">
+        <v>0</v>
+      </c>
+      <c r="D61" s="219" t="str">
         <f>TEXT(作業計画!C69,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A62">
+      <c r="A62" s="216">
         <f>ROW(作業計画!A70)</f>
         <v>70</v>
       </c>
-      <c r="B62" s="212">
-        <v>0</v>
-      </c>
-      <c r="D62" s="212" t="str">
+      <c r="B62" s="219">
+        <v>0</v>
+      </c>
+      <c r="D62" s="219" t="str">
         <f>TEXT(作業計画!C70,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A63">
+      <c r="A63" s="216">
         <f>ROW(作業計画!A71)</f>
         <v>71</v>
       </c>
-      <c r="B63" s="212">
-        <v>0</v>
-      </c>
-      <c r="D63" s="212" t="str">
+      <c r="B63" s="219">
+        <v>0</v>
+      </c>
+      <c r="D63" s="219" t="str">
         <f>TEXT(作業計画!C71,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A64">
+      <c r="A64" s="216">
         <f>ROW(作業計画!A72)</f>
         <v>72</v>
       </c>
-      <c r="B64" s="212">
-        <v>0</v>
-      </c>
-      <c r="D64" s="212" t="str">
+      <c r="B64" s="219">
+        <v>0</v>
+      </c>
+      <c r="D64" s="219" t="str">
         <f>TEXT(作業計画!C72,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A65">
+      <c r="A65" s="216">
         <f>ROW(作業計画!A73)</f>
         <v>73</v>
       </c>
-      <c r="B65" s="212">
-        <v>0</v>
-      </c>
-      <c r="D65" s="212" t="str">
+      <c r="B65" s="219">
+        <v>0</v>
+      </c>
+      <c r="D65" s="219" t="str">
         <f>TEXT(作業計画!C73,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66">
+      <c r="A66" s="216">
         <f>ROW(作業計画!A74)</f>
         <v>74</v>
       </c>
-      <c r="B66" s="212">
-        <v>0</v>
-      </c>
-      <c r="D66" s="212" t="str">
+      <c r="B66" s="219">
+        <v>0</v>
+      </c>
+      <c r="D66" s="219" t="str">
         <f>TEXT(作業計画!C74,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A67">
+      <c r="A67" s="216">
         <f>ROW(作業計画!A75)</f>
         <v>75</v>
       </c>
-      <c r="B67" s="212">
-        <v>0</v>
-      </c>
-      <c r="D67" s="212" t="str">
+      <c r="B67" s="219">
+        <v>0</v>
+      </c>
+      <c r="D67" s="219" t="str">
         <f>TEXT(作業計画!C75,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A68">
+      <c r="A68" s="216">
         <f>ROW(作業計画!A76)</f>
         <v>76</v>
       </c>
-      <c r="B68" s="212">
-        <v>0</v>
-      </c>
-      <c r="D68" s="212" t="str">
+      <c r="B68" s="219">
+        <v>0</v>
+      </c>
+      <c r="D68" s="219" t="str">
         <f>TEXT(作業計画!C76,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A69">
+      <c r="A69" s="216">
         <f>ROW(作業計画!A77)</f>
         <v>77</v>
       </c>
-      <c r="B69" s="212">
-        <v>0</v>
-      </c>
-      <c r="D69" s="212" t="str">
+      <c r="B69" s="219">
+        <v>0</v>
+      </c>
+      <c r="D69" s="219" t="str">
         <f>TEXT(作業計画!C77,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A70">
+      <c r="A70" s="216">
         <f>ROW(作業計画!A78)</f>
         <v>78</v>
       </c>
-      <c r="B70" s="212">
-        <v>0</v>
-      </c>
-      <c r="D70" s="212" t="str">
+      <c r="B70" s="219">
+        <v>0</v>
+      </c>
+      <c r="D70" s="219" t="str">
         <f>TEXT(作業計画!C78,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A71">
+      <c r="A71" s="216">
         <f>ROW(作業計画!A79)</f>
         <v>79</v>
       </c>
-      <c r="B71" s="212">
-        <v>0</v>
-      </c>
-      <c r="D71" s="212" t="str">
+      <c r="B71" s="219">
+        <v>0</v>
+      </c>
+      <c r="D71" s="219" t="str">
         <f>TEXT(作業計画!C79,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A72">
+      <c r="A72" s="216">
         <f>ROW(作業計画!A80)</f>
         <v>80</v>
       </c>
-      <c r="B72" s="212">
-        <v>0</v>
-      </c>
-      <c r="D72" s="212" t="str">
+      <c r="B72" s="219">
+        <v>0</v>
+      </c>
+      <c r="D72" s="219" t="str">
         <f>TEXT(作業計画!C80,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A73">
+      <c r="A73" s="216">
         <f>ROW(作業計画!A81)</f>
         <v>81</v>
       </c>
-      <c r="B73" s="212">
-        <v>0</v>
-      </c>
-      <c r="D73" s="212" t="str">
+      <c r="B73" s="219">
+        <v>0</v>
+      </c>
+      <c r="D73" s="219" t="str">
         <f>TEXT(作業計画!C81,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74">
+      <c r="A74" s="216">
         <f>ROW(作業計画!A82)</f>
         <v>82</v>
       </c>
-      <c r="B74" s="212">
-        <v>0</v>
-      </c>
-      <c r="D74" s="212" t="str">
+      <c r="B74" s="219">
+        <v>0</v>
+      </c>
+      <c r="D74" s="219" t="str">
         <f>TEXT(作業計画!C82,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A75">
+      <c r="A75" s="216">
         <f>ROW(作業計画!A83)</f>
         <v>83</v>
       </c>
-      <c r="B75" s="212">
-        <v>0</v>
-      </c>
-      <c r="D75" s="212" t="str">
+      <c r="B75" s="219">
+        <v>0</v>
+      </c>
+      <c r="D75" s="219" t="str">
         <f>TEXT(作業計画!C83,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A76">
+      <c r="A76" s="216">
         <f>ROW(作業計画!A84)</f>
         <v>84</v>
       </c>
-      <c r="B76" s="212">
-        <v>0</v>
-      </c>
-      <c r="D76" s="212" t="str">
+      <c r="B76" s="219">
+        <v>0</v>
+      </c>
+      <c r="D76" s="219" t="str">
         <f>TEXT(作業計画!C84,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A77">
+      <c r="A77" s="216">
         <f>ROW(作業計画!A85)</f>
         <v>85</v>
       </c>
-      <c r="B77" s="212">
-        <v>0</v>
-      </c>
-      <c r="D77" s="212" t="str">
+      <c r="B77" s="219">
+        <v>0</v>
+      </c>
+      <c r="D77" s="219" t="str">
         <f>TEXT(作業計画!C85,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A78">
+      <c r="A78" s="216">
         <f>ROW(作業計画!A86)</f>
         <v>86</v>
       </c>
-      <c r="B78" s="212">
-        <v>0</v>
-      </c>
-      <c r="D78" s="212" t="str">
+      <c r="B78" s="219">
+        <v>0</v>
+      </c>
+      <c r="D78" s="219" t="str">
         <f>TEXT(作業計画!C86,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A79">
+      <c r="A79" s="216">
         <f>ROW(作業計画!A87)</f>
         <v>87</v>
       </c>
-      <c r="B79" s="212">
-        <v>0</v>
-      </c>
-      <c r="D79" s="212" t="str">
+      <c r="B79" s="219">
+        <v>0</v>
+      </c>
+      <c r="D79" s="219" t="str">
         <f>TEXT(作業計画!C87,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A80">
+      <c r="A80" s="216">
         <f>ROW(作業計画!A88)</f>
         <v>88</v>
       </c>
-      <c r="B80" s="212">
-        <v>0</v>
-      </c>
-      <c r="D80" s="212" t="str">
+      <c r="B80" s="219">
+        <v>0</v>
+      </c>
+      <c r="D80" s="219" t="str">
         <f>TEXT(作業計画!C88,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A81">
+      <c r="A81" s="216">
         <f>ROW(作業計画!A89)</f>
         <v>89</v>
       </c>
-      <c r="B81" s="212">
-        <v>0</v>
-      </c>
-      <c r="D81" s="212" t="str">
+      <c r="B81" s="219">
+        <v>0</v>
+      </c>
+      <c r="D81" s="219" t="str">
         <f>TEXT(作業計画!C89,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A82">
+      <c r="A82" s="216">
         <f>ROW(作業計画!A90)</f>
         <v>90</v>
       </c>
-      <c r="B82" s="212">
-        <v>0</v>
-      </c>
-      <c r="D82" s="212" t="str">
+      <c r="B82" s="219">
+        <v>0</v>
+      </c>
+      <c r="D82" s="219" t="str">
         <f>TEXT(作業計画!C90,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A83">
+      <c r="A83" s="216">
         <f>ROW(作業計画!A91)</f>
         <v>91</v>
       </c>
-      <c r="B83" s="212">
-        <v>0</v>
-      </c>
-      <c r="D83" s="212" t="str">
+      <c r="B83" s="219">
+        <v>0</v>
+      </c>
+      <c r="D83" s="219" t="str">
         <f>TEXT(作業計画!C91,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A84">
+      <c r="A84" s="216">
         <f>ROW(作業計画!A92)</f>
         <v>92</v>
       </c>
-      <c r="B84" s="212">
-        <v>0</v>
-      </c>
-      <c r="D84" s="212" t="str">
+      <c r="B84" s="219">
+        <v>0</v>
+      </c>
+      <c r="D84" s="219" t="str">
         <f>TEXT(作業計画!C92,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A85">
+      <c r="A85" s="216">
         <f>ROW(作業計画!A93)</f>
         <v>93</v>
       </c>
-      <c r="B85" s="212">
-        <v>0</v>
-      </c>
-      <c r="D85" s="212" t="str">
+      <c r="B85" s="219">
+        <v>0</v>
+      </c>
+      <c r="D85" s="219" t="str">
         <f>TEXT(作業計画!C93,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A86">
+      <c r="A86" s="216">
         <f>ROW(作業計画!A94)</f>
         <v>94</v>
       </c>
-      <c r="B86" s="212">
-        <v>0</v>
-      </c>
-      <c r="D86" s="212" t="str">
+      <c r="B86" s="219">
+        <v>0</v>
+      </c>
+      <c r="D86" s="219" t="str">
         <f>TEXT(作業計画!C94,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A87">
+      <c r="A87" s="216">
         <f>ROW(作業計画!A95)</f>
         <v>95</v>
       </c>
-      <c r="B87" s="212">
-        <v>0</v>
-      </c>
-      <c r="D87" s="212" t="str">
+      <c r="B87" s="219">
+        <v>0</v>
+      </c>
+      <c r="D87" s="219" t="str">
         <f>TEXT(作業計画!C95,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A88">
+      <c r="A88" s="216">
         <f>ROW(作業計画!A96)</f>
         <v>96</v>
       </c>
-      <c r="B88" s="212">
-        <v>0</v>
-      </c>
-      <c r="D88" s="212" t="str">
+      <c r="B88" s="219">
+        <v>0</v>
+      </c>
+      <c r="D88" s="219" t="str">
         <f>TEXT(作業計画!C96,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A89">
+      <c r="A89" s="216">
         <f>ROW(作業計画!A97)</f>
         <v>97</v>
       </c>
-      <c r="B89" s="212">
-        <v>0</v>
-      </c>
-      <c r="D89" s="212" t="str">
+      <c r="B89" s="219">
+        <v>0</v>
+      </c>
+      <c r="D89" s="219" t="str">
         <f>TEXT(作業計画!C97,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A90">
+      <c r="A90" s="216">
         <f>ROW(作業計画!A98)</f>
         <v>98</v>
       </c>
-      <c r="B90" s="212">
-        <v>0</v>
-      </c>
-      <c r="D90" s="212" t="str">
+      <c r="B90" s="219">
+        <v>0</v>
+      </c>
+      <c r="D90" s="219" t="str">
         <f>TEXT(作業計画!C98,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A91">
+      <c r="A91" s="216">
         <f>ROW(作業計画!A99)</f>
         <v>99</v>
       </c>
-      <c r="B91" s="212">
-        <v>0</v>
-      </c>
-      <c r="D91" s="212" t="str">
+      <c r="B91" s="219">
+        <v>0</v>
+      </c>
+      <c r="D91" s="219" t="str">
         <f>TEXT(作業計画!C99,"HH:MM")</f>
         <v>00:00</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A92">
+      <c r="A92" s="216">
         <f>ROW(作業計画!A100)</f>
         <v>100</v>
       </c>
-      <c r="B92" s="212">
-        <v>0</v>
-      </c>
-      <c r="D92" s="212" t="str">
+      <c r="B92" s="219">
+        <v>0</v>
+      </c>
+      <c r="D92" s="219" t="str">
         <f>TEXT(作業計画!C100,"HH:MM")</f>
         <v>00:00</v>
       </c>
@@ -12314,13 +12240,13 @@
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
@@ -12338,57 +12264,57 @@
     <col min="17" max="17" width="3.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>252</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="P1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q1" s="216" t="s">
-        <v>262</v>
+        <v>21</v>
+      </c>
+      <c r="Q1" s="214" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -12460,11 +12386,11 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
       </c>
       <c r="H3" t="s">
         <v>138</v>
@@ -12513,14 +12439,14 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>142</v>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="214" t="s">
+        <v>234</v>
       </c>
       <c r="I4" t="s">
         <v>134</v>
@@ -12529,7 +12455,7 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L4" t="s">
         <v>66</v>
@@ -12558,22 +12484,22 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
         <v>144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
         <v>134</v>
@@ -12582,7 +12508,7 @@
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L5" t="s">
         <v>66</v>
@@ -12611,22 +12537,22 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" t="s">
         <v>148</v>
-      </c>
-      <c r="D6" t="s">
-        <v>149</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
         <v>134</v>
@@ -12635,7 +12561,7 @@
         <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L6" t="s">
         <v>66</v>
@@ -12664,22 +12590,22 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
         <v>153</v>
-      </c>
-      <c r="D7" t="s">
-        <v>154</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I7" t="s">
         <v>134</v>
@@ -12688,7 +12614,7 @@
         <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L7" t="s">
         <v>66</v>
@@ -12717,22 +12643,22 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
         <v>134</v>
@@ -12741,7 +12667,7 @@
         <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
@@ -12770,22 +12696,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" t="s">
         <v>160</v>
-      </c>
-      <c r="D9" t="s">
-        <v>161</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="I9" t="s">
         <v>134</v>
@@ -12794,7 +12720,7 @@
         <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L9" t="s">
         <v>66</v>
@@ -12823,22 +12749,22 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10">
         <v>20</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I10" t="s">
         <v>134</v>
@@ -12847,7 +12773,7 @@
         <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
@@ -12876,22 +12802,22 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
         <v>134</v>
@@ -12900,7 +12826,7 @@
         <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L11" t="s">
         <v>66</v>
@@ -12929,22 +12855,22 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I12" t="s">
         <v>77</v>
@@ -12953,7 +12879,7 @@
         <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L12" t="s">
         <v>66</v>
@@ -12982,22 +12908,22 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I13" t="s">
         <v>77</v>
@@ -13006,7 +12932,7 @@
         <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L13" t="s">
         <v>66</v>
@@ -13035,22 +12961,22 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I14" t="s">
         <v>77</v>
@@ -13059,7 +12985,7 @@
         <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L14" t="s">
         <v>66</v>
@@ -13088,22 +13014,22 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I15" t="s">
         <v>134</v>
@@ -13112,7 +13038,7 @@
         <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s">
         <v>66</v>
@@ -13141,22 +13067,22 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="I16" t="s">
         <v>134</v>
@@ -13165,7 +13091,7 @@
         <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
         <v>66</v>
@@ -13194,22 +13120,22 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I17" t="s">
         <v>77</v>
@@ -13218,7 +13144,7 @@
         <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
         <v>66</v>
@@ -13247,22 +13173,22 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E18">
         <v>5</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>186</v>
       </c>
       <c r="H18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I18" t="s">
         <v>134</v>
@@ -13271,7 +13197,7 @@
         <v>60</v>
       </c>
       <c r="K18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
         <v>66</v>
@@ -13300,22 +13226,22 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>186</v>
       </c>
       <c r="H19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I19" t="s">
         <v>139</v>
@@ -13324,7 +13250,7 @@
         <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
         <v>66</v>
@@ -13353,22 +13279,22 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>186</v>
       </c>
       <c r="H20" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="I20" t="s">
         <v>134</v>
@@ -13377,7 +13303,7 @@
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L20" t="s">
         <v>66</v>
@@ -13406,22 +13332,22 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>70</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>186</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I21" t="s">
         <v>77</v>
@@ -13430,7 +13356,7 @@
         <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
         <v>66</v>
@@ -13459,22 +13385,22 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E22">
         <v>25</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" t="s">
+        <v>186</v>
       </c>
       <c r="H22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I22" t="s">
         <v>77</v>
@@ -13483,7 +13409,7 @@
         <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
         <v>66</v>
@@ -13512,22 +13438,22 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" t="s">
+        <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I23" t="s">
         <v>77</v>
@@ -13536,7 +13462,7 @@
         <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
         <v>66</v>
@@ -13565,31 +13491,31 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" t="s">
+        <v>186</v>
       </c>
       <c r="H24" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
         <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s">
         <v>66</v>
@@ -13618,31 +13544,31 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
+      <c r="F25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" t="s">
+        <v>186</v>
       </c>
       <c r="H25" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
         <v>66</v>
@@ -13671,31 +13597,31 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" t="s">
+        <v>186</v>
       </c>
       <c r="H26" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J26" t="s">
         <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
         <v>66</v>
@@ -13724,31 +13650,31 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
+        <v>186</v>
       </c>
       <c r="H27" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J27" t="s">
         <v>60</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s">
         <v>66</v>
@@ -13777,31 +13703,31 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E28">
         <v>30</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" t="s">
+        <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J28" t="s">
         <v>60</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s">
         <v>66</v>
@@ -13830,31 +13756,31 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
+      <c r="F29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" t="s">
+        <v>186</v>
       </c>
       <c r="H29" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I29" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J29" t="s">
         <v>60</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s">
         <v>66</v>
@@ -13883,22 +13809,22 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="F30" t="s">
+        <v>149</v>
       </c>
       <c r="G30" t="s">
         <v>132</v>
       </c>
       <c r="H30" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I30" t="s">
         <v>77</v>
@@ -13907,7 +13833,7 @@
         <v>60</v>
       </c>
       <c r="K30" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
         <v>66</v>
@@ -13936,22 +13862,22 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
+      <c r="F31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" t="s">
+        <v>132</v>
       </c>
       <c r="H31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I31" t="s">
         <v>134</v>
@@ -13960,7 +13886,7 @@
         <v>60</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s">
         <v>66</v>
@@ -13997,14 +13923,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="F32" t="s">
+        <v>149</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>0</v>
+      <c r="H32" t="s">
+        <v>245</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -14050,14 +13976,14 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>0</v>
+      <c r="F33" t="s">
+        <v>149</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>0</v>
+      <c r="H33" t="s">
+        <v>245</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -14103,14 +14029,14 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
-        <v>0</v>
+      <c r="F34" t="s">
+        <v>149</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
+      <c r="H34" t="s">
+        <v>245</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -14156,14 +14082,14 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
-        <v>0</v>
+      <c r="F35" t="s">
+        <v>149</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>245</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -14209,14 +14135,14 @@
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>0</v>
+      <c r="F36" t="s">
+        <v>149</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>0</v>
+      <c r="H36" t="s">
+        <v>245</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -14262,14 +14188,14 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37">
-        <v>0</v>
+      <c r="F37" t="s">
+        <v>149</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>0</v>
+      <c r="H37" t="s">
+        <v>245</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -14315,14 +14241,14 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38">
-        <v>0</v>
+      <c r="F38" t="s">
+        <v>149</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>0</v>
+      <c r="H38" t="s">
+        <v>245</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -14368,14 +14294,14 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39">
-        <v>0</v>
+      <c r="F39" t="s">
+        <v>149</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
+      <c r="H39" t="s">
+        <v>245</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -14421,14 +14347,14 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
-        <v>0</v>
+      <c r="F40" t="s">
+        <v>149</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>0</v>
+      <c r="H40" t="s">
+        <v>245</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -14474,14 +14400,14 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41">
-        <v>0</v>
+      <c r="F41" t="s">
+        <v>149</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>245</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -14527,14 +14453,14 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42">
-        <v>0</v>
+      <c r="F42" t="s">
+        <v>149</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
+      <c r="H42" t="s">
+        <v>245</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -14580,14 +14506,14 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43">
-        <v>0</v>
+      <c r="F43" t="s">
+        <v>149</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>0</v>
+      <c r="H43" t="s">
+        <v>245</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -14633,14 +14559,14 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44">
-        <v>0</v>
+      <c r="F44" t="s">
+        <v>149</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>0</v>
+      <c r="H44" t="s">
+        <v>245</v>
       </c>
       <c r="I44">
         <v>0</v>
